--- a/referentials/ISO27001-2022.en.xlsx
+++ b/referentials/ISO27001-2022.en.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name=" Worksheet" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1" forceFullCalc="1"/>
@@ -17,2394 +17,2155 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="717">
   <si>
-    <t>Domaine</t>
-  </si>
-  <si>
-    <t>Clause</t>
-  </si>
-  <si>
-    <t>Nom</t>
-  </si>
-  <si>
-    <t>Objectif</t>
-  </si>
-  <si>
-    <t>Attributs</t>
-  </si>
-  <si>
-    <t>Données</t>
-  </si>
-  <si>
-    <t>Modèle</t>
-  </si>
-  <si>
-    <t>Indicateur</t>
-  </si>
-  <si>
-    <t>Plan d'action</t>
-  </si>
-  <si>
-    <t>27001:2022</t>
-  </si>
-  <si>
-    <t>Amélioration continue</t>
-  </si>
-  <si>
-    <t>Mettre en place l'amélioration continue au sein du SMSI.</t>
-  </si>
-  <si>
-    <t>- plan d'amélioration continue</t>
-  </si>
-  <si>
-    <t>Contrôler l'amélioration de la pertinence, de l'adéquation et de l'efficacité du système de management de la sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Rouge : non-conforme</t>
-  </si>
-  <si>
-    <t>Améliorer continuellement la pertinence, l'adéquation et l'efficacité du système de management de la sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>Non-conformité et actions correctives</t>
-  </si>
-  <si>
-    <t>S’assurer que les non-conformités et les actions correctives sont traitées.</t>
-  </si>
-  <si>
-    <t>- Le plan de suivi des non-conformités et d'actions correctives</t>
-  </si>
-  <si>
-    <t>Contrôler le plan de traitement des non-conformités et des actions correctives</t>
-  </si>
-  <si>
-    <t>Mettre en place un plan de gestion des non-conformités et des actions correctives</t>
-  </si>
-  <si>
-    <t>4.x</t>
-  </si>
-  <si>
-    <t>Compréhension de l'organisation et de son contexte</t>
-  </si>
-  <si>
-    <t>Comprendre l'organisation et son contexte, définir le domaine d'application et mettre en place un SMSI</t>
-  </si>
-  <si>
-    <t>- Compréhension de l'organisation et de son contexte
-- Compréhension des besoins et des attentes des parties intéressées
-- Détermination du domaine d'application du SMSI
-- Système de management de la sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Contrôler la compréhension de l'organisation et de son contexte, la compréhension des besoins et attentes des parties intéressées, le domaine d'application et le système de management de la sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>Revoir la compréhension de l'organisation et de son contexte</t>
-  </si>
-  <si>
-    <t>27001:2022-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.01 </t>
-  </si>
-  <si>
-    <t>Politiques de sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Assurer de manière continue la pertinence, l'adéquation, l'efficacité des orientations de la direction et de  son soutien à la sécurité de l'information selon les exigences métier, légales, statutaires, réglementaires  et contractuelles.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Gouvernance #Gouvernance_et_Écosystème #Résilience</t>
-  </si>
-  <si>
-    <t>- ensemble de politique de sécurité de l'information
-- preuves d'approbation
-- preuves de diffusion</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence de l'ensemble des politiques de sécurité, leur validé, leur diffusion et communication aux salariés et aux tiers concernés.</t>
-  </si>
-  <si>
-    <t>Vert: conforme
-Orange: manquements mineurs
-Rouge: non-conforme</t>
-  </si>
-  <si>
-    <t>Définir une politique de sécurité de l'information et des politiques portant sur des thèmes, de les faire approuver par la direction, de les publier, de les communiquer et d'en demander confirmation au personnel et aux parties intéressées concernés, ainsi que de les réviser à intervalles planifiés et si des changements notoires interviennent.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.02 </t>
-  </si>
-  <si>
-    <t>Fonctions et responsabilités liées à la sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Établir une structure définie, approuvée et comprise pour la mise en œuvre, le fonctionnement et la  gestion de la sécurité de l'information au sein de l'organisation.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Gouvernance #Gouvernance_et_Écosystème #Protection #Résilience</t>
-  </si>
-  <si>
-    <t>- Politique d'organisation de la sécurité
-- Attribution par la direction des responsabilités en matière de sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Contrôler la définition et l'attribution des fonctions et responsabilités liées à la sécurité de l'information selon les besoins de  l'organisation.</t>
-  </si>
-  <si>
-    <t>Vert : présence des preuves
-Orange : manquement mineur
-Rouge : absence de preuves</t>
-  </si>
-  <si>
-    <t>Définir et attribuer toutes les responsabilités en matière de sécurité de l’information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.03 </t>
-  </si>
-  <si>
-    <t>Séparation des tâches</t>
-  </si>
-  <si>
-    <t>Réduire le risque de fraude, d'erreur et de contournement des mesures de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Gouvernance #Gestion_des_iden_x0002_tités_et_des_accès #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- Définition des tâches et domaines de responsabilités incompatibles</t>
-  </si>
-  <si>
-    <t>Contrôler que les tâches et domaines de responsabilité incompatibles sont séparés</t>
-  </si>
-  <si>
-    <t>Vert: présence des preuves
-Orange : non-conformité mineure
-Rouge : absence de preuves</t>
-  </si>
-  <si>
-    <t>Séparer les tâches et domaines de responsabilité incompatibles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.04 </t>
-  </si>
-  <si>
-    <t>Responsabilités de la direction</t>
-  </si>
-  <si>
-    <t>S’assurer que la direction comprend son rôle en matière de sécurité de l'information et qu'elle  entreprend des actions visant à garantir que tout le personnel est conscient de ses responsabilités liées  à la sécurité de l'information et qu'il les mène à bien.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Gouvernance #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- communication de la direction 
-- date du contrôle</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence d'une communication de la direction sur l'importance de la sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>Vert : =&lt; 1 an
-Orange : &gt; 1 an
-Rouge : absence de communication</t>
-  </si>
-  <si>
-    <t>Publier une communication de la direction sur l'importance de la sécurité de l'information pour l'organisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.05 </t>
-  </si>
-  <si>
-    <t>Relations avec les autorités</t>
-  </si>
-  <si>
-    <t>Assurer la circulation adéquate de l'information en matière de sécurité de l’information, entre  l'organisation et les autorités légales, réglementaires et de surveillance pertinente.</t>
-  </si>
-  <si>
-    <t>#Préventive #Corrective #Confidentialité #Intégrité #Disponibilité #Identifier #Protéger #Répondre #Rétablir #Gouvernance #Défense #Résilience</t>
-  </si>
-  <si>
-    <t>- procédure d'organisation de la sécurité
-- inventaire des autorités compétentes
-- preuve de relation avec les autorités</t>
-  </si>
-  <si>
-    <t>La procédure et l'inventaire sont à jour
-il existe des preuves de relation avec les autorités</t>
-  </si>
-  <si>
-    <t>Vert : présence des preuves
-Orange : non-conformité mineure
-Rouge: absence de preuves</t>
-  </si>
-  <si>
-    <t>Des relations appropriées avec les autorités compétentes doivent être entretenues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.06 </t>
-  </si>
-  <si>
-    <t>Relations avec des groupes de travail spécialisés</t>
-  </si>
-  <si>
-    <t>Assurer la circulation adéquate de l'information en matière de sécurité de l’information.</t>
-  </si>
-  <si>
-    <t>#Préventive #Corrective #Confidentialité #Intégrité #Disponibilité #Protéger #Répondre #Rétablir #Gouvernance #Défense</t>
-  </si>
-  <si>
-    <t>- procédure d'organisation de la sécurité
-- inventaire des groupes de spécialistes
-- preuves de relation avec les groupes de spécialistes</t>
-  </si>
-  <si>
-    <t>La procédure et l'inventaire des groupes de spécialistes sont à jour.
-Il existe des preuves de relation avec les groupes de spécialistes.</t>
-  </si>
-  <si>
-    <t>Vert : présence des preuves
-Orange : non-conformité mineure
-Rouge: preuves manquantes</t>
-  </si>
-  <si>
-    <t>Revoir la procédure, mettre à jour l'inventaire et entretenir des relations avec les groupes de spécialistes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.07 </t>
-  </si>
-  <si>
-    <t>Intelligence des menaces</t>
-  </si>
-  <si>
-    <t>Apporter une connaissance de l'environnement des menaces de l'organisation afin que les mesures  d'atténuation appropriées puissent être prises.</t>
-  </si>
-  <si>
-    <t>#Préventive #Détective #Corrective #Confidentialité #Intégrité #Disponibilité #Identification #Détecter #Répondre #Gestion_des_menaces_et_des_vulnérabilités #Défense #Résilience</t>
-  </si>
-  <si>
-    <t>- sources d'information sur les menaces
-- preuves d'analyses</t>
-  </si>
-  <si>
-    <t>Il existe des sources d'information et des preuves d'analyses</t>
-  </si>
-  <si>
-    <t>Recueillir et analyser des informations sur les menaces.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.08 </t>
-  </si>
-  <si>
-    <t>Sécurité de l'information dans la gestion de projet</t>
-  </si>
-  <si>
-    <t>Assurer que les risques de sécurité de l'information relatifs aux projets et aux livrables sont traités  efficacement dans la gestion de projet, tout au long du cycle de vie du projet.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Protéger #Gouvernance #Gouvernance_et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- procédure d'organisation de la sécurité
-- preuves de la prise en considération de la sécurité de l'information dans la gestion des projets</t>
-  </si>
-  <si>
-    <t>Contrôler la prise en considération de la sécurité de l'information dans la gestion de projet.</t>
-  </si>
-  <si>
-    <t>Vert : présence des preuves
-Orange : non-conformité mineure
-Rouge : absence de preuves</t>
-  </si>
-  <si>
-    <t>Intégrer la sécurité de l'information aux activités de gestion de projet de l'organisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.09 </t>
-  </si>
-  <si>
-    <t>Inventaire des informations et des autres actifs associés</t>
-  </si>
-  <si>
-    <t>Identifier les informations et autres actifs associés de l'organisation afin de préserver leur sécurité et  d'en attribuer la propriété de manière appropriée.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Gestion_des_actifs #Gouvernance_et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- extrait de l'inventaire 
-- contrôle physique de l'inventaire
-- vérifier l'attribution d'un propriétaire</t>
-  </si>
-  <si>
-    <t>Contrôler qu'un inventaire des informations et des autres actifs associés, y compris leurs propriétaires et tenu et mis à jour</t>
-  </si>
-  <si>
-    <t>Elaborer et de tenir à jour un inventaire des informations et des autres actifs associés, y compris leurs propriétaires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.10 </t>
-  </si>
-  <si>
-    <t>Utilisation correcte de l'information et des autres actifs associés</t>
-  </si>
-  <si>
-    <t>Assurer que les informations et autres actifs associés sont protégés, utilisés et traités de manière  appropriée.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Gestion_des_actifs #Protection_des_informations #Gouvernance_et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- Règle d'utilisation correcte des actifs
-- Date de publication</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence des règles
-Comparer la date de publication à la date du contrôle</t>
-  </si>
-  <si>
-    <t>Identifier, documenter et mettre en oeuvre des règles d'utilisation correcte et des procédures de traitement de l'information et des autres actifs associés.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.11 </t>
-  </si>
-  <si>
-    <t>Restitution des actifs</t>
-  </si>
-  <si>
-    <t>Protéger les actifs de l'organisation dans le cadre du processus du changement ou de la fin de leur  emploi, contrat ou accord.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Gestion_des_actifs #Protection</t>
-  </si>
-  <si>
-    <t>- échantillon des employés ayant quitté l'organisation sur la période
-- preuves de restitution des assets</t>
-  </si>
-  <si>
-    <t>Contrôler la listes de employés ayant quitté l'organisation et les preuves de restitution des actifs à l'organisation.</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : non-conformités mineures
-Rouge : non conforme</t>
-  </si>
-  <si>
-    <t>Le personnel et les autres parties intéressées, au besoin, restituent tous les actifs de l'organisation qui sont en leur possession en cas de modification ou de rupture de leur relation de travail, contrat de travail ou engagement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12 </t>
-  </si>
-  <si>
-    <t>Classification de l'information</t>
-  </si>
-  <si>
-    <t>Assurer l'identification et la compréhension des besoins de protection de l'information en fonction de son importance pour l'organisation.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Protection_des_infor_x0002_mations #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- vérifier la date de mise à jour de la procédure
-- vérifier avec le DPO et juriste la conformité de la procédure au vu des changements du contexte de l'organisation</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence et la mise à jour de la procédure et son contenu compte-tenu du contexte de l'organisation</t>
-  </si>
-  <si>
-    <t>Classifier l'information conformément aux besoins de l'organisation en termes de sécurité de l'information sur le plan de la confidentialité, de l'intégrité, de la disponibilité et des exigences des parties intéressées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.13 </t>
-  </si>
-  <si>
-    <t>Marquage des informations</t>
-  </si>
-  <si>
-    <t>Faciliter la communication de la classification de l'information et appuyer l'automatisation de la gestion  et du traitement de l'information.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Protection_des_infor_x0002_mations #Défense #Protection</t>
-  </si>
-  <si>
-    <t>- procédure de marquage
-- échantillon d’information (procédure, formulaire ...)</t>
-  </si>
-  <si>
-    <t>Contrôler la procédure de marquege et sa mise en œuvre sur un échantillon des informations de l'organisation.</t>
-  </si>
-  <si>
-    <t>Revoir la procédure de marquage de l'information et son application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.14 </t>
-  </si>
-  <si>
-    <t>Transfert de l'information</t>
-  </si>
-  <si>
-    <t>Maintenir la sécurité de l'information transférée au sein de l'organisation et vers toute partie intéressée  externe</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Gestion_des_actifs #Protection_des_informations #Protection</t>
-  </si>
-  <si>
-    <t>- règles, procédures ou accords de transfert de l'information
-- inventaire des accords concernés
-- termes des accords</t>
-  </si>
-  <si>
-    <t>Contrôler la mise place des règles, procédures ou accords de transfert de l'information, l'inventaire des accords concernés et les termes des accords.</t>
-  </si>
-  <si>
-    <t>Mettre en place des politiques, des procédures et des mesures de transfert formelles pour protéger les transferts d’information transitant par tous types d’équipements de communication.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15 </t>
-  </si>
-  <si>
-    <t>Contrôle d'accès</t>
-  </si>
-  <si>
-    <t>Assurer l'accès autorisé et empêcher l'accès non autorisé aux informations et autres actifs associés.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Gestion_des_identités_et_des_accès #Protection</t>
-  </si>
-  <si>
-    <t>- Politique de contrôle d'accès
-- Date de revue de la politique
-- Date du contrôle</t>
-  </si>
-  <si>
-    <t>Contrôler la définition et la mise en oeuvre des règles visant à gérer l'accès physique et logique à l'information et aux autres actifs associés en fonction des exigences métier et de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>Etablir, documenter et revoir la politique de contrôle d'accès</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.16 </t>
-  </si>
-  <si>
-    <t>Gestion des identités</t>
-  </si>
-  <si>
-    <t>Permettre l'identification unique des personnes et des systèmes qui accèdent aux informations et  autres actifs associés de l'organisation, et pour permettre l’attribution appropriée des droits d'accès.</t>
-  </si>
-  <si>
-    <t>- processus d'enregistrement et de désinscription des utilisateurs
-- date du contrôle</t>
-  </si>
-  <si>
-    <t>Contrôler la gestion du cycle de vie complet des identités.</t>
-  </si>
-  <si>
-    <t>Gérer le cycle de vie complet des identités.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.17 </t>
-  </si>
-  <si>
-    <t>Informations d'authentification</t>
-  </si>
-  <si>
-    <t>Assurer l'authentification correcte de l'entité et éviter les défaillances des processus d'authentification.</t>
-  </si>
-  <si>
-    <t>- processus de gestion de l'attribution des informations secrètes d'authentification</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence et l'application du processus de gestion de l'attribution des informations secrètes d'authentification</t>
-  </si>
-  <si>
-    <t>Mettre en place un processus de gestion formel de l’attribution des informations secrètes d’authentification.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.18 </t>
-  </si>
-  <si>
-    <t>Droits d'accès</t>
-  </si>
-  <si>
-    <t>Assurer que l'accès aux informations et aux autres actifs associés est défini et autorisé conformément aux  exigences métier</t>
-  </si>
-  <si>
-    <t>- Processus de maîtrise de la gestion des accès aux utilisateurs
-- Preuves d'application du processus de maîtrise de la gestion des accès aux utilisateurs
-- Revue des droits d'accès</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence du processus de maîtrise de la gestion des accès aux utilisateurs, la validité des preuves d'application du processus et la revue des droits d'accès</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : anomalie
-Rouge : non-conforme</t>
-  </si>
-  <si>
-    <t>Les droits d'accès à l'information et aux autres actifs associés sont mis en service, révisés, modifiés et supprimés conformément à la politique portant sur le thème de l'organisation et aux règles de contrôle d'accès.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.19 </t>
-  </si>
-  <si>
-    <t>Sécurité de l'information dans les relations avec les fournisseurs</t>
-  </si>
-  <si>
-    <t>Maintenir le niveau de sécurité de l'information convenu dans les relations avec les fournisseurs.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Sécurité_des_relations_fournisseurs #Gouvernance_et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- fournisseurs soumis aux exigences de sécurité de l'information
-- exigences de sécurité de l'information
-- acceptations par les fournisseurs</t>
-  </si>
-  <si>
-    <t>Contrôler que les exigences sont documentées et mises à jour et que les mesures sont acceptées par les fournisseurs</t>
-  </si>
-  <si>
-    <t>Définir et faire accepter par les fournisseurs des exigences de sécurité de l’information pour limiter les risques résultant de l’accès de ces fournisseurs aux actifs de l’organisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.20 </t>
-  </si>
-  <si>
-    <t>Prise en compte de la sécurité de l'information dans les accords conclus avec les fournisseurs</t>
-  </si>
-  <si>
-    <t>- exigences applicables liées à la sécurité de l’information
-- fournisseurs concernés
-- convention avec les fournisseurs</t>
-  </si>
-  <si>
-    <t>Contrôler que les exigences sont documentées et mises à jour et que les exigences sont convenues avec les fournisseurs</t>
-  </si>
-  <si>
-    <t>Etablir et convenir avec chaque fournisseur pouvant accéder, traiter, stocker, communiquer ou fournir des composants de l’infrastructure informatique destinés à l’information de l’organisation, des exigences applicables liées à la sécurité de l’information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.21 </t>
-  </si>
-  <si>
-    <t>Management de la sécurité de l'information dans la chaîne d'approvisionnement TIC</t>
-  </si>
-  <si>
-    <t>- fournisseurs concernés
-- exigences sur le traitement des risques
-- accords conclus avec ces fournisseurs</t>
-  </si>
-  <si>
-    <t>Contrôler les exigences sont documentées et que les accords conclus contiennent les exigences</t>
-  </si>
-  <si>
-    <t>Inclure dans les accords conclus avec les fournisseurs, des exigences sur le traitement des risques liés à la sécurité de l’information associé à la chaîne d’approvisionnement des produits et des services informatiques.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.22 </t>
-  </si>
-  <si>
-    <t>Suivi, revue et gestion des changements des services fournisseurs</t>
-  </si>
-  <si>
-    <t>Maintenir un niveau convenu de sécurité de l'information et de prestation de services, conformément  aux accords conclus avec les fournisseurs.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Sécurité_des_relations_fournisseurs #Assurance_de_sécurité_de_l'information #Gouvernance_et_Écosystème #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- Fournisseurs concernés
-- Surveillances, vérifications et audits effectués</t>
-  </si>
-  <si>
-    <t>Contrôler que l'organisation procède régulièrement à la surveillance, à la revue, à l'évaluation et à la gestion des changements de pratiques des fournisseurs en matière de sécurité de l'information et de prestation de services.</t>
-  </si>
-  <si>
-    <t>Surveiller, vérifier et auditer à intervalles réguliers la prestation des services assurés par les fournisseurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.23 </t>
-  </si>
-  <si>
-    <t>Sécurité de l'information dans l'utilisation de services en nuage</t>
-  </si>
-  <si>
-    <t>Spécifier et gérer la sécurité de l'information lors de l'utilisation de services en nuage.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_des_relations_fournisseurs #Gouvernance_ et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- Services en nuage concernés
-- Processus d'acquisition, d'utilisation, de management et de cessation des services en nuages
-- Preuves d'application des processus d'acquisition, d'utilisation de management et de cessation</t>
-  </si>
-  <si>
-    <t>Contrôler que les processus d'acquisition, d'utilisation, de management et de cessation des services en nuage sont définis conformément aux exigences de sécurité de l'information de l'organisation.</t>
-  </si>
-  <si>
-    <t>Définir et surveiller les processus d'acquisition, d'utilisation, de management et de cessation des services en nuage conformément aux exigences de sécurité de l'information de l'organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.24 </t>
-  </si>
-  <si>
-    <t>Planification et préparation de la gestion des incidents liés à la sécurité de
-l'information</t>
-  </si>
-  <si>
-    <t>Assurer une réponse rapide, efficace, cohérente et ordonnée aux incidents de sécurité de l'information,  notamment la communication sur les événements de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>#Corrective #Confidentialité #Intégrité #Disponibilité #Répondre #Rétablir #Gouvernance #Gestion_des_événements_de_sécurité_de_l'information #Défense</t>
-  </si>
-  <si>
-    <t>- procédure de gestion des incidents
-- date de mise à jour</t>
-  </si>
-  <si>
-    <t>Contrôler que les responsabilités dans la gestion des incidents sont définies
-Contrôler que la procédure de gestion des incidents existe et est à jour</t>
-  </si>
-  <si>
-    <t>Etablir des responsabilités et des procédures permettant de garantir une réponse rapide, efficace et pertinente en cas d’incident lié à la sécurité de l’information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.25 </t>
-  </si>
-  <si>
-    <t>Appréciation des événements liés à la sécurité de l'information et prise de décision</t>
-  </si>
-  <si>
-    <t>Assurer une catégorisation et une priorisation efficaces des événements de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>#Détective #Confidentialité #Intégrité #Disponibilité #Détecter #Répondre #Gestion_des_événements_de_sécurité_de_l'information #Défense</t>
-  </si>
-  <si>
-    <t>- liste des incidents
-- processus de sélection
-- liste des incidents liés à la sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Contrôler que le processus de sélection est appliqué</t>
-  </si>
-  <si>
-    <t>Revoir le processus d'appréciation des incidents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.26 </t>
-  </si>
-  <si>
-    <t>Réponse aux incidents liés à la sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Assurer une réponse efficace et effective aux incidents de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>#Corrective #Confidentialité #Intégrité #Disponibilité #Répondre #Rétablir #Gestion_des_événements_de_sécurité_de_l'information #Défense</t>
-  </si>
-  <si>
-    <t>Procédure de gestion des incidents de sécurité
-Preuves d'application de la procédure</t>
-  </si>
-  <si>
-    <t>Contrôler que la procédure existe et est à jour
-Contrôler que la procédure est suivie</t>
-  </si>
-  <si>
-    <t>Vert: conforme
-Orange : anomalie
-Rouge : non-conforme</t>
-  </si>
-  <si>
-    <t>Traiter les incidents liés à la sécurité de l’information conformément aux procédures documentées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.27 </t>
-  </si>
-  <si>
-    <t>Tirer des enseignements des incidents liés à la sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Réduire la probabilité ou les conséquences des incidents futurs.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Protéger #Gestion_des_événements_de_sécurité_de_l'information #Défense</t>
-  </si>
-  <si>
-    <t>- Procédure de gestion des incidents
-- Preuves d'utilisation des connaissances</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence de l'amélioration dans la procédure
-Contrôler l'existence de preuve d'amélioration</t>
-  </si>
-  <si>
-    <t>Utiliser les connaissances recueillies suite à l’analyse et la résolution d’incidents pour réduire la probabilité ou l’impact d’incidents ultérieurs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.28 </t>
-  </si>
-  <si>
-    <t>Recueil de preuves</t>
-  </si>
-  <si>
-    <t>Assurer une gestion cohérente et efficace des preuves relatives aux incidents de sécurité de l'information  pour les besoins d'actions judiciaires ou de disciplinaires.</t>
-  </si>
-  <si>
-    <t>#Corrective #Confidentialité #Intégrité #Disponibilité #Détecter #Répondre #Gestion_des_événements_de_sécurité_de_l'information #Défense</t>
-  </si>
-  <si>
-    <t>- procédure de collecte de preuves
-- preuve de collecte de preuves</t>
-  </si>
-  <si>
-    <t>Contrôler la documentation de la collecte de preuve dans la procédure
-Contrôler l'application de la collecte de preuve</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : anomalie
-Rouge : non conforme</t>
-  </si>
-  <si>
-    <t>Définir et appliquer des procédures d’identification, de collecte, d’acquisition et de protection de l’information pouvant servir de preuve.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.29 </t>
-  </si>
-  <si>
-    <t>Sécurité de l'information durant une perturbation</t>
-  </si>
-  <si>
-    <t>Protéger les informations et autres actifs associés pendant une perturbation.</t>
-  </si>
-  <si>
-    <t>#Préventive #Corrective #Confidentialité #Intégrité #Disponibilité #Protéger #Répondre #Continuité #Protection #Résilience</t>
-  </si>
-  <si>
-    <t>- Procédure de gestion de la continuité d'activité
-- Exigences en matière de sécurité et de continuité
-- Preuves de vérification des mesures</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence et la mise à jour de la procédure
-Contrôler les exigences en matière de sécurité et de continuité</t>
-  </si>
-  <si>
-    <t>Déterminer ses exigences en matière de sécurité de l’information et de continuité de management de la sécurité de l’information dans des situations défavorables, comme lors d’une crise ou d’un sinistre.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.30 </t>
-  </si>
-  <si>
-    <t>Préparation des TIC pour la continuité d'activité</t>
-  </si>
-  <si>
-    <t>Assurer la disponibilité des informations et autres actifs associés de l'organisation pendant une  perturbation.</t>
-  </si>
-  <si>
-    <t>#Corrective #Disponibilité #Répondre #Continuité #Résilience</t>
-  </si>
-  <si>
-    <t>- Systèmes concernés
-- Objectifs de continuité
-- Tests de continuité</t>
-  </si>
-  <si>
-    <t>Contrôler l'identification des systèmes et de leurs objectifs de sécurité
-Contrôler la réalisation de tests de continuité</t>
-  </si>
-  <si>
-    <t>Identifier les objectifs de continuité d'action et les exigences de continuité des TIC. Réaliser des tests de continuité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.31 </t>
-  </si>
-  <si>
-    <t>Identification des exigences légales, statutaires, réglementaires et contractuelles</t>
-  </si>
-  <si>
-    <t>Assurer la conformité aux exigences légales, statutaires, réglementaires et contractuelles relatives à la  sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Réglementation_et_conformité #Gouvernance_et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire des exigences légales, statutaires, réglementaires et contractuelles en vigueur
-- approche adoptée par l’organisation pour satisfaire à ces exigences</t>
-  </si>
-  <si>
-    <t>Contrôler que l'inventaire est à jour et que l'approche est documentée</t>
-  </si>
-  <si>
-    <t>Définir explicitement, documenter et mettre à jour toutes les exigences légales, statutaires, réglementaires et contractuelles en vigueur, ainsi que l’approche adoptée par l’organisation pour satisfaire à ces exigences pour chaque système d’information et pour l’organisation elle-même.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.32 </t>
-  </si>
-  <si>
-    <t>Droits de propriété intellectuelle</t>
-  </si>
-  <si>
-    <t>Assurer la conformité aux exigences légales, statutaires, réglementaires et contractuelles relatives aux  droits de propriété intellectuelle et à l'utilisation de produits propriétaires.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Réglementation_et_conformité #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- procédure pour garantir la propriété intellectuelle
-- preuves d'application de la procédure</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence de la procédure et sa mise à jour et les preuves d'application de la procédure</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre des procédures appropriées pour garantir la conformité avec les exigences légales, réglementaires et contractuelles relatives à la propriété intellectuelle et à l’usage des licences de logiciels propriétaires.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.33 </t>
-  </si>
-  <si>
-    <t>Protection des enregistrements</t>
-  </si>
-  <si>
-    <t>Assurer la conformité aux exigences légales, statutaires, réglementaires et contractuelles, ainsi  qu'aux attentes de la société ou de la communauté relatives à la protection et à la disponibilité des  enregistrements.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Pro_x0002_téger #Réglementation_et_confor_x0002_mité #Gestion_des_actifs #Protection_des_informa_x0002_tions #Défense</t>
-  </si>
-  <si>
-    <t>- mesures de protection des enregistrements
-- exigences légales, réglementaires, contractuelles et aux exigences métier
-- Inventaire des sources d'information clé</t>
-  </si>
-  <si>
-    <t>- Contrôler que les mesures respectent les exigences.
-- Contrôler les preuves d'application des mesures
-- Contrôler la mise à jour de l'inventaire des sources d'information clé
-- Contrôler la suppression des informations</t>
-  </si>
-  <si>
-    <t>Protéger les enregistrements de la perte, de la destruction, de la falsification, des accès non autorisés et des diffusions non autorisées, conformément aux exigences légales, réglementaires, contractuelles et aux exigences métier.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.34 </t>
-  </si>
-  <si>
-    <t>Vie privée et protection des DCP</t>
-  </si>
-  <si>
-    <t>Assurer la conformité aux exigences légales, statutaires, réglementaires et contractuelles relatives aux  aspects de la sécurité de l'information portant sur la protection des DCP.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Protéger #Protection_des_informations #Réglementation_et_conformité #Protection</t>
-  </si>
-  <si>
-    <t>- Politique vie privée
-- mesures de protection</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence et la mise à jour de la politique vie privée et l'application des mesures de protection</t>
-  </si>
-  <si>
-    <t>Garantir la protection de la vie privée et la protection des données à caractère personnel telles que l’exigent la législation ou les réglementations applicables, et les clauses contractuelles le cas échéant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.35 </t>
-  </si>
-  <si>
-    <t>Revue indépendante de la sécurité de l'information</t>
-  </si>
-  <si>
-    <t>S’assurer que l’approche de l’organisation pour gérer la sécurité de l’information est continuellement  adaptée, adéquate et efficace.</t>
-  </si>
-  <si>
-    <t>#Préventive #Cor_x0002_rective #Confidentialité #Intégrité #Disponibilité #Identifier #Protéger #Assurance_de_sécurité_de_l'information #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- Revues indépendantes
-- Plan de suivi des revues
-- Changements dans l'organisaiton</t>
-  </si>
-  <si>
-    <t>Contrôler que des revues indépendantes de l'approche retenue par l'organisation pour gérer et mettre en oeuvre la sécurité de l'information, y compris des personnes, processus et technologies sont menées à intervalles définis ou lorsque des changements importants sont intervenus.</t>
-  </si>
-  <si>
-    <t>Effectuer une revue indépendante de l’approche retenue par l’organisme pour gérer et mettre en œuvre la sécurité de l’information (à savoir le suivi des objectifs de sécurité, les mesures, les politiques, les procédures et les processus relatifs à la sécurité de l’information) et mettre en place un plan de suivi de la revue.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.36 </t>
-  </si>
-  <si>
-    <t>Conformité aux politiques et normes de sécurité de l'information</t>
-  </si>
-  <si>
-    <t>S’assurer que la sécurité de l'information est mise en œuvre et fonctionne conformément à la politique  de sécurité de l'information, aux politiques spécifiques à une thématique, aux règles et aux normes de  l'organisation.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Protéger #Réglementation_et_conformité #Assurance_de_sécurité_de_l'information #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- inventaire des systèmes d'information concernés
-- preuves de vérification</t>
-  </si>
-  <si>
-    <t>Contrôler que la conformité à la politique de sécurité de l'information, aux politiques portant sur des thèmes et aux normes de l'organisation est vérifiée régulièrement.</t>
-  </si>
-  <si>
-    <t>Examiner les systèmes d’information quant à leur conformité avec les politiques et les normes de sécurité de l’information de l’organisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.37 </t>
-  </si>
-  <si>
-    <t>Procédures d'exploitation documentées</t>
-  </si>
-  <si>
-    <t>S'assurer du fonctionnement correct et sécurisé des moyens de traitement de l'information.</t>
-  </si>
-  <si>
-    <t>#Préventive #Corrective #Confidentialité #Intégrité #Disponibilité #Protéger #Rétablir #Gestion_des_actifs #Sécurité_physique #Sécurité_système_et_réseau #Sécurité_des_applications #Configuration_sécurisée #Gestion_des_identités_et_des_accès #Gestion_des_menaces_et_des_vulnérabilités #Continuité #Gestion_des_événements_de_sécurité_de_l'information #Gouvernance_et_Écosystème #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- procédure d'exploitation
-- disponibilité des procédures aux utilisateurs</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence et la mise à jour des procédures d'exploitation et la mise à disposition des procédures aux utilisateurs concernés</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : anomalies
-Rouge : non-conforme</t>
-  </si>
-  <si>
-    <t>Documenter et mettre à disposition des utilisateurs concernés les procédures d’exploitation.</t>
-  </si>
-  <si>
-    <t>5.x</t>
-  </si>
-  <si>
-    <t>Leadership</t>
-  </si>
-  <si>
-    <t>Etre en capacité de diriger l'organisation afin d'atteindre les objectifs du SMSI.</t>
-  </si>
-  <si>
-    <t>- Preuves de leadership de la direction
-- Politique de sécurité de l'information
-- Définitions des rôles, responsabilités et autorités en matière de sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Contrôler :
-- Les preuves de leadership et d'engagement de la direction
-- La politique de sécurité de l'information
-- Les rôles, responsabilités et autorités au sein de l'organisation</t>
-  </si>
-  <si>
-    <t>Définir et assigner au sein de l'organisation les rôles, responsabilités et autorités en matière de sécurité de l'information ;
-Etablir une politique de sécurité de l'information ;
-Identifier les personnes responsables nominativement.</t>
-  </si>
-  <si>
-    <t>27001:2022-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.01 </t>
-  </si>
-  <si>
-    <t>Présélection</t>
-  </si>
-  <si>
-    <t>S'assurer que tous les membres du personnel sont éligibles et adéquats pour remplir les fonctions pour lesquelles ils sont candidats, et qu'ils le restent tout au long de leur emploi.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_des_res_x0002_sources_humaines #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- Procédure de sélection des candidats
-- Preuves d'exécution du processus de sélection</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence d'une procédure à jour et l'existence de preuves d’exécution du processus de sélection.</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : non-conformité mineure
-Rouge : absence de preuves</t>
-  </si>
-  <si>
-    <t>Mettre à jour la procédure et effectuer des vérifications sur tous les candidats à l’embauche.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.02 </t>
-  </si>
-  <si>
-    <t>Conditions générales d'embauche</t>
-  </si>
-  <si>
-    <t>S'assurer que le personnel comprend ses responsabilités en termes de sécurité de l'information dans le cadre des fonctions que l’organisation envisage de lui confier.</t>
-  </si>
-  <si>
-    <t>- définitions des termes
-- preuves d'existence des termes dans les accords</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence des termes et preuves de présence des termes les accords</t>
-  </si>
-  <si>
-    <t>Vert : présence de preuves
-Orange : Non-conformité mineure
-Rouge : absence de preuves</t>
-  </si>
-  <si>
-    <t>Définir les responsabilités et celles de l’organisation en matière de sécurité de l’information dans les accords contractuels entre les salariés et les sous-traitants.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.03 </t>
-  </si>
-  <si>
-    <t>Sensibilisation, apprentissage et formation à la sécurité de l'information</t>
-  </si>
-  <si>
-    <t>S'assurer que le personnel et les parties intéressées pertinentes connaissent et remplissent leurs responsabilités en matière de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_des_res_x0002_sources_humaines #Gouvernance_et_Écosystèm</t>
-  </si>
-  <si>
-    <t>- plan de sensibilisation à la sécurité de l'information
-- feuilles de présence</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence d'un plan de sensibilisation à la sécurité et la participation du personnel à des formations</t>
-  </si>
-  <si>
-    <t>Vert : existence d'un plan et présence du personnel
-Orange : non-conformité mineure
-Rouge : Absence de sensibilisation</t>
-  </si>
-  <si>
-    <t>Sensibilier le personnel de l'organisation et les parties intéressées  à la sécurité de l'information, leur communiquer un apprentissage et des formations à la sécurité de l'information adaptés, et leur transmettre régulièrement les mises à jour des politiques et procédures de l'organisation s'appliquant à leur fonction.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.04 </t>
-  </si>
-  <si>
-    <t>Processus disciplinaire</t>
-  </si>
-  <si>
-    <t>S'assurer que le personnel et d’autres parties intéressées pertinentes comprennent les conséquences  des violations de la politique de sécurité de l'information, prévenir ces violations, et traiter de manière  appropriée le personnel et d’autres parties intéressées qui ont commis des violations.</t>
-  </si>
-  <si>
-    <t>#Préventive #Corrective #Confidentialité #Intégrité #Disponibilité #Protéger #Répondre #Sécurité_des_ressources_humaines #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- Processus disciplinaire
-- Communication du process
-- Parties intéressées</t>
-  </si>
-  <si>
-    <t>Contrôler qu'un processus disciplinaire permettant de prendre des mesures à l'encontre du personnel et des autres parties intéressées qui ont commis une violation de la politique de sécurité de l'information est formalisé et de communiqué.</t>
-  </si>
-  <si>
-    <t>Vert : existe
-Orange : non-conformité mineure
-Rouge : absence de preuves</t>
-  </si>
-  <si>
-    <t>Formaliser et communiquer un processus disciplinaire permettant de prendre des mesures à l'encontre du personnel et des autres parties intéressées qui ont commis une violation de la politique de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.05 </t>
-  </si>
-  <si>
-    <t>Responsabilités consécutivement à la fin ou à la modification du contrat de tr</t>
-  </si>
-  <si>
-    <t>Protéger les intérêts de l'organisation dans le cadre du processus de changement ou de fin d'un emploi  ou d’un contrat.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_des_ressources_humaines #Gestion_des_actifs #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- définition des termes
-- preuves d'application</t>
-  </si>
-  <si>
-    <t>Existence des termes et des preuves d'application</t>
-  </si>
-  <si>
-    <t>Vert : existe
-Orange : non-conformités mineures
-Rouge : absence de preuves</t>
-  </si>
-  <si>
-    <t>Définir les responsabilités et les missions liées à la sécurité de l’information qui restent valables à l’issue de la rupture, du terme ou de la modification du contrat de travail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.06 </t>
-  </si>
-  <si>
-    <t>Engagements de confidentialité ou de non-divulgation</t>
-  </si>
-  <si>
-    <t>Assurer la confidentialité des informations accessibles par le personnel ou des parties externes.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Protéger #Sécurité_des_ressources_humaines #Protection_des_informations #Relations_fournisseurs #Gouvernance_et_Écosystème</t>
-  </si>
-  <si>
-    <t>- les exigences en matière d'engagement de confidentialité ou de non-divulgation sont documentées 
-- les engagements de confidentialités ont été signés par les prestataires lors des derniers projets effectués.</t>
-  </si>
-  <si>
-    <t>Contrôler que les exigences sont identifiées et documentées</t>
-  </si>
-  <si>
-    <t>Identifier, vérifier et documenter les exigences en matière d’engagements de confidentialité ou de non-divulgation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.07 </t>
-  </si>
-  <si>
-    <t>Travail à distance</t>
-  </si>
-  <si>
-    <t>Assurer la sécurité des informations lorsque le personnel travaille à distance.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Gestion_des_actifs #Protection_des_informations #Sécurité_physique #Sécurité_système_et_réseau #Protection</t>
-  </si>
-  <si>
-    <t>- Mesures de sécurité complémentaires 
-- Preuves d'application des mesures complémentaires</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence et mise à jour des mesures de sécurité complémentaires et les preuves d'application de ces mesures</t>
-  </si>
-  <si>
-    <t>Définir et mettre en oeuvre une politique et des mesures de sécurité complémentaires pour protéger les informations consultées, traitées ou stockées sur des sites de télétravail.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.08 </t>
-  </si>
-  <si>
-    <t>Signalement des événements liés à la sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Permettre la déclaration des événements de sécurité de l'information qui peuvent être identifiés par le  personnel, de manière rapide, cohérente et efficace.</t>
-  </si>
-  <si>
-    <t>#Détective #Confidentialité #Intégrité #Disponibilité #Détecter #Gestion_des_événements_de_sécurité_de_l'information #Défense</t>
-  </si>
-  <si>
-    <t>- Procédure de gestion des incidents
-- Exemple d'incident signalé par les voies hiérarchiques</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence de la procédure, son application et sa mise à jour</t>
-  </si>
-  <si>
-    <t>Signaler les événements liés à la sécurité de l’information dans les meilleurs délais par les voies hiérarchiques appropriées.</t>
-  </si>
-  <si>
-    <t>6.x</t>
-  </si>
-  <si>
-    <t>Planification</t>
-  </si>
-  <si>
-    <t>- Mettre en œuvre des actions face aux risques et aux opportunités
-- Définir des objectifs de sécurité de l'information et plans pour les atteindre
-- Planifier les modifications du SMSI</t>
-  </si>
-  <si>
-    <t>- Appréciation des risques
-- Registre des risques
-- Plan de traitement des risques
-- Objectifs de sécurité de l'information</t>
-  </si>
-  <si>
-    <t>Contrôler les actions mises en œuvre face aux risques et opportunités
-- Objectifs de sécurité de l'information
-- Plan de modifications du SMSI</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre des actions face aux risques et aux opportunités, des objectifs de sécurité de l'information et un plan de modification du SMSI.</t>
-  </si>
-  <si>
-    <t>27001:2022-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.01 </t>
-  </si>
-  <si>
-    <t>Périmètre de sécurité physique</t>
-  </si>
-  <si>
-    <t>Empêcher l’accès physique non autorisé, les dommages ou interférences portant sur les informations et  autres actifs associés de l'organisation.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_physique #Protection</t>
-  </si>
-  <si>
-    <t>- définition des périmètres de sécurité
-- inventaire des zones contenant de l'information sensible</t>
-  </si>
-  <si>
-    <t>Contrôler que des périmètres de sécurité servant à protéger les zones qui contiennent l'information sensible ou critique et les autres actifs associés sont définis.</t>
-  </si>
-  <si>
-    <t>Définir des périmètres de sécurité pour protéger les zones contenant l’information sensible ou critique et les moyens de traitement de l’information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.02 </t>
-  </si>
-  <si>
-    <t>Contrôles physiques des accès</t>
-  </si>
-  <si>
-    <t>Assurer que seul l'accès physique autorisé aux informations et autres actifs associés de l'organisation  soit possible.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_physique #Gestion_des_identités_et_des_accès #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire des zones sécurisées
-- contrôles adéquats à l'entrée
-- application des contrôles</t>
-  </si>
-  <si>
-    <t>Contrôler que les zones sécurisées sont protégées par des contrôles adéquats à l’entrée pour s’assurer que seul le personnel autorisé est admis.</t>
-  </si>
-  <si>
-    <t>Mettre en place des contrôles adéquats à l’entrée des zones sécurisées pour s’assurer que seul le personnel autorisé est admis.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.03 </t>
-  </si>
-  <si>
-    <t>Sécurisation des bureaux, des salles et des équipements</t>
-  </si>
-  <si>
-    <t>Empêcher l’accès physique non autorisé, les dommages et les interférences impactant les informations et autres actifs associés de l'organisation dans les bureaux, salles et installations.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_physique #Gestion_des_actifs #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire des bureaux, salles et équipements
-- mesures de sécurité physique
-- application des mesures</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire, les mesures de sécurité et l'application des mesures.</t>
-  </si>
-  <si>
-    <t>Concevoir et appliquer des mesures de sécurité physique aux bureaux, aux salles et aux équipements.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.04 </t>
-  </si>
-  <si>
-    <t>Surveillance de la sécurité physique</t>
-  </si>
-  <si>
-    <t>Détecter et dissuader l’accès physique non autorisé.</t>
-  </si>
-  <si>
-    <t>#Préventive #Détective #Confidentialité #Intégrité #Disponibilité #Protéger #Détecter #Sécurité_physique #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- locaux physiques concernés
-- mesures de sécurité mises en place
-- preuves de surveillance</t>
-  </si>
-  <si>
-    <t>Contrôler l'application des mesures de surveillances continue des locaux</t>
-  </si>
-  <si>
-    <t>Identifier les locaux concernés, identifier les mesures à mettre en place et surveiller en continu l'accès physique non autorisé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.05 </t>
-  </si>
-  <si>
-    <t>Protection contre les menaces physiques et environnementales</t>
-  </si>
-  <si>
-    <t>Prévenir ou réduire les conséquences des événements issus des menaces physiques ou environnementales.</t>
-  </si>
-  <si>
-    <t>- inventaire des désastres naturels attaques malveillantes ou les accidents pris en compte
-- mesures de protection physique
-- application de ces mesures</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire et l'application des mesures. Compter le nombre d'anomalies.</t>
-  </si>
-  <si>
-    <t>Concevoir et appliquer des mesures de protection physique contre les désastres naturels, les attaques malveillantes ou les accidents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.06 </t>
-  </si>
-  <si>
-    <t>Travail dans les zones sécurisées</t>
-  </si>
-  <si>
-    <t>Protéger les informations et autres actifs associés dans les zones sécurisées contre tout dommage et  contre toutes interférences non autorisées par le personnel travaillant dans ces zones.</t>
-  </si>
-  <si>
-    <t>- procédure pour le travail dans les zones sécurisées 
-- zones sécurisées
-- application de la procédure</t>
-  </si>
-  <si>
-    <t>Contrôler que les invantaires existent et sont à jour.</t>
-  </si>
-  <si>
-    <t>Concevoir et appliquer des procédures pour le travail dans les zones sécurisées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.07 </t>
-  </si>
-  <si>
-    <t>Bureau propre et écran vide</t>
-  </si>
-  <si>
-    <t>Réduire les risques d'accès non autorisé, de perte et d'endommagement des informations sur les  bureaux, les écrans et dans d’autres emplacements accessibles pendant et en dehors des heures  normales de travail.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Protéger #Sécurité_physique #Protection</t>
-  </si>
-  <si>
-    <t>- Politique du bureau propre
-- Respect de la politique par les utilisateurs</t>
-  </si>
-  <si>
-    <t>Contrôler que des règles du bureau propre pour les documents papier et les supports de stockage amovibles, et les règles de l'écran vide pour les moyens de traitement de l'information sont définies et d'appliquées.</t>
-  </si>
-  <si>
-    <t>- Revoir la politique du bureau propre pour les documents papier et les supports de stockage amovibles, 
-- Sensibiliser les utilisateurs au respect de la politique du bureau propre et de l’écran verrouillé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.08 </t>
-  </si>
-  <si>
-    <t>Emplacement et protection du matériel</t>
-  </si>
-  <si>
-    <t>Réduire les risques liés à des menaces physiques et environnementales, et à des accès non autorisés et  à des dommages.</t>
-  </si>
-  <si>
-    <t>- inventaire du matériel concerné
-- menaces et dangers environnementaux retenus
-- emplacements
-- mesures mises en œuvre</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire du matériel concerné et leurs emplacements.
-Contrôler l'application des mesures de protection.</t>
-  </si>
-  <si>
-    <t>Protéger les matériels contre les risques liés à des menaces et des dangers environnementaux et les possibilités d’accès non autorisé.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.09 </t>
-  </si>
-  <si>
-    <t>Sécurité des actifs hors des locaux</t>
-  </si>
-  <si>
-    <t>Empêcher la perte, l'endommagement, le vol ou la compromission des terminaux hors du site et  l'interruption des activités de l'organisation.</t>
-  </si>
-  <si>
-    <t>- mesures de sécurité appliquées
-- preuves d'application des mesures de sécurité</t>
-  </si>
-  <si>
-    <t>Contrôler l'application des mesures de sécurité</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : non-conformité mineure
-Rouge : non-conforme</t>
-  </si>
-  <si>
-    <t>Appliquer des mesures de sécurité aux matériels utilisés hors des locaux de l’organisation en tenant compte des différents risques associés au travail hors site.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.10 </t>
-  </si>
-  <si>
-    <t>Supports de stockage</t>
-  </si>
-  <si>
-    <t>Assurer que seuls la divulgation, la modification, le retrait ou la destruction autorisés des informations  de l'organisation sur des supports de stockage sont effectués.</t>
-  </si>
-  <si>
-    <t>- procédure de gestion des supports de stockage
-- échantillons de supports
-- preuves de gestion des supports (conservation, classification ...)
-- Echantillon de transports effectués
-- Preuve de transport
-- Preuves de mise au rebut</t>
-  </si>
-  <si>
-    <t>- Contrôler que des procédures de gestion des supports amovibles sont mises en œuvre conformément au plan de classification adopté par l’organisation.
-- Contrôler que les supports qui ne sont plus nécessaires sont mis au rebut de manière sécurisée en suivant des procédures formelles.
-- Contrôler que les supports contenant de l’information sont protégés contre les accès non autorisés, les erreurs d’utilisation et l’altération lors du transport.</t>
-  </si>
-  <si>
-    <t>Gérer les supports de stockage tout au long de leur cycle de vie d'acquisition, d'utilisation, de transport et de mise au rebut conformément au plan de classification et aux exigences de manipulation de l'organisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.11 </t>
-  </si>
-  <si>
-    <t>Services généraux</t>
-  </si>
-  <si>
-    <t>Empêcher la perte, l'endommagement ou la compromission des informations et autres actifs associés,  ou l'interruption des activités de l'organisation, causés par les défaillances et les perturbations des  services supports.</t>
-  </si>
-  <si>
-    <t>#Préventive #Détective #Intégrité #Disponibilité #Protéger #Détecter #Sécurité_physique #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire du matériel concerné
-- mesures de protection</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire du matériel et l'application des mesures de protection.</t>
-  </si>
-  <si>
-    <t>Protéger les matériels des coupures de courant et autres perturbations dues à une défaillance des services généraux.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.12 </t>
-  </si>
-  <si>
-    <t>Sécurité du câblage</t>
-  </si>
-  <si>
-    <t>Empêcher la perte, l'endommagement, le vol ou la compromission des informations et autres actifs  associés et l'interruption des activités de l'organisation liés au câblage électrique et de communications.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Disponibilité #Protéger #Sécurité_physique #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire du câblage concerné 
-- mesures de protection contre les interceptions et les dommages</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire du câblage et l'application des mesures</t>
-  </si>
-  <si>
-    <t>Protéger les câbles électriques, transportant des données ou supportant les services d'information contre toute interception, interférence ou tout dommage.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.13 </t>
-  </si>
-  <si>
-    <t>Maintenance du matériel</t>
-  </si>
-  <si>
-    <t>Empêcher la perte, l'endommagement, le vol ou la compromission des informations et autres actifs  associés et l'interruption des activités de l'organisation causés par un manque de maintenance.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_physique #Gestion_des_actifs #Protection #Résilience</t>
-  </si>
-  <si>
-    <t>- inventaire du matériel concerné
-- mesures d’entretiens
-- preuves d'application des mesures d'entretien</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire du matériel concerné, les mesures d'entretien et l'application des mesures</t>
-  </si>
-  <si>
-    <t>Entretenir correctement les matériels pour garantir leur disponibilité permanente et leur intégrité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7.14 </t>
-  </si>
-  <si>
-    <t>Mise au rebut ou recyclage sécurisé(e) du matériel</t>
-  </si>
-  <si>
-    <t>Éviter la fuite d'informations à partir de matériel à éliminer ou à réutiliser.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Protéger #Sécurité_physique #Gestion_des_actifs #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire du matériel contenant des données sensibles
-- preuves d'effacement des données</t>
-  </si>
-  <si>
-    <t>Contrôler que l'inventaire est à jour.
-Contrôler la présence des preuves d'effacement des données</t>
-  </si>
-  <si>
-    <t>S’assurer que toute donnée sensible a bien été supprimée et que tout logiciel sous licence a bien été désinstallé ou écrasé de façon sécurisée  du matériel contenant des données sensibles avant leur mise au rebut ou leur réutilisation.</t>
-  </si>
-  <si>
-    <t>Compétences</t>
-  </si>
-  <si>
-    <t>Disposer des ressources et compétences nécessaires  pour la mise en place du SMSI.</t>
-  </si>
-  <si>
-    <t>- Ressources nécessaires
-- Matrice de compétences</t>
-  </si>
-  <si>
-    <t>Contrôler que les ressources nécessaires sont disponibles et disposent des compétences nécessaires.</t>
-  </si>
-  <si>
-    <t>Disposer des ressources nécessaires ayant les compétences requises pour la gestion du SMSI.</t>
-  </si>
-  <si>
-    <t>7.x</t>
-  </si>
-  <si>
-    <t>Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sensibiliser et communiquer sur l'importance de la sécurité de l'information et documenter le SMSI
-</t>
-  </si>
-  <si>
-    <t>- Actions de sensibilisation réalisées
-- Communication aux parties prenantes
-- Processus de documentation du SMSI.</t>
-  </si>
-  <si>
-    <t>Contrôler les actions de sensibilisation réalisés et la communication aux parties prenantes.
-Vérifier la qualité de la documentation du SMSI.</t>
-  </si>
-  <si>
-    <t>Sensibiliser à la politique de sécurité de l'information, communiquer aux parties prenantes. Revoir la documentation du SMSI.</t>
-  </si>
-  <si>
-    <t>27001:2022-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.01 </t>
-  </si>
-  <si>
-    <t>Terminaux utilisateurs</t>
-  </si>
-  <si>
-    <t>Protéger les informations contre les risques liés à l'utilisation de terminaux finaux des utilisateurs.</t>
-  </si>
-  <si>
-    <t>- Mesure de sécurité mises en place
-- Inventaire des terminaux utilisateur
-- Preuves d'application de mesures de protection</t>
-  </si>
-  <si>
-    <t>Contrôler que toute information stockée sur un terminal utilisateur final, traitée par ou accessible via ce type d'appareil et protégée.</t>
-  </si>
-  <si>
-    <t>Vert : présence de preuves
-Orange : non-conformité mineure
-Rouge : absence de preuves</t>
-  </si>
-  <si>
-    <t>Protéger toute information stockée ou traitée sur un terminal utilisateur final ou accessible via ce type d'appareil.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.02 </t>
-  </si>
-  <si>
-    <t>Privilèges d'accès</t>
-  </si>
-  <si>
-    <t>S'assurer que seuls les utilisateurs, composants logiciels et services autorisés sont dotés de droits d'accès privilégiés.</t>
-  </si>
-  <si>
-    <t>- restrictions des droits d'accès à privilèges
-- contrôle des droits d'accès à privilèges</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence des restrictions de droits d'accès à privilège et l'allocation des doits d'accès à privilèges</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange: non conformités mineures
-Rouge: non conforme</t>
-  </si>
-  <si>
-    <t>Restreindre et contrôler l’allocation et l’utilisation des droits d’accès à privilèges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.03 </t>
-  </si>
-  <si>
-    <t>Restriction d'accès à l'information</t>
-  </si>
-  <si>
-    <t>Assurer les accès autorisés seulement et empêcher les accès non autorisés aux informations et autres actifs associés.</t>
-  </si>
-  <si>
-    <t>- restrictions d'accès à l'information 
-- application de ces restrictions</t>
-  </si>
-  <si>
-    <t>Contrôler les restriction d'accès à l'information et l'application de ces restriction conformément à la politique portant sur le thème du contrôle d'accès.</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : conconformité mineure
-Rouge : non-conforme</t>
-  </si>
-  <si>
-    <t>Revoir les restrictions d'accès à l'information et leur application</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.04 </t>
-  </si>
-  <si>
-    <t>Accès au code source</t>
-  </si>
-  <si>
-    <t>Empêcher l'introduction d'une fonctionnalité non autorisée, éviter les modifications non intentionnelles  ou malveillantes et préserver la confidentialité de la propriété intellectuelle importante.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Gestion_des_identités_et_des_accès #Sécurité_des_applications #Configuration_sécurisée #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire du code source des programmes
-- restriction d'accès au code source</t>
-  </si>
-  <si>
-    <t>Contrôler l'effectivité de la restriction de l'accès au code source des programmes.</t>
-  </si>
-  <si>
-    <t>Restreindre l’accès au code source des programmes.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.05 </t>
-  </si>
-  <si>
-    <t>Authentification sécurisée</t>
-  </si>
-  <si>
-    <t>S'assurer qu'un utilisateur ou une entité est authentifié de façon sécurisée lorsque l'accès aux systèmes, applications et services lui est accordé.</t>
-  </si>
-  <si>
-    <t>- procédures de connexion sécurisée
-- application de la procédure de connexion</t>
-  </si>
-  <si>
-    <t>Contrôler l'application des procédures de connexion sécurisée</t>
-  </si>
-  <si>
-    <t>Lorsque la politique de contrôle d’accès l’exige, contrôler par une procédure de connexion sécurisée l'accès aux systèmes et aux applications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.06 </t>
-  </si>
-  <si>
-    <t>Dimensionnement</t>
-  </si>
-  <si>
-    <t>Assurer les besoins en termes de moyens de traitement de l'information, de ressources humaines, de bureaux et autres installations.</t>
-  </si>
-  <si>
-    <t>#Préventive #Détective #Intégrité #Disponibilité #Identifier #Protéger #Détecter #Continuité #Gouvernance_et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- ressources surveillées
-- preuves de surveillance et de dimensionnement des ressources
-- projection sur les dimensionnements futurs</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire des ressources surveillées, les preuves de surveillances et les projections effectuées</t>
-  </si>
-  <si>
-    <t>Surveiller et ajuster l’utilisation des ressources et effectuer des projections sur les dimensionnements futurs pour garantir les performances exigées du système.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.07 </t>
-  </si>
-  <si>
-    <t>Protection contre les programmes malveillants</t>
-  </si>
-  <si>
-    <t>S’assurer que les informations et autres actifs associés sont protégés contre les programmes malveillants.</t>
-  </si>
-  <si>
-    <t>#Préventive #Détective #Corrective #Confidentialité #Intégrité #Disponibilité #Protéger #Détecter #Sécurité_système_et_réseau #Protection_des_informations #Protection #Défense</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.08 </t>
-  </si>
-  <si>
-    <t>Gestion des vulnérabilités techniques</t>
-  </si>
-  <si>
-    <t>Empêcher l’exploitation des vulnérabilités techniques.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Protéger #Gestion_des_me_x0002_naces_et_des_vulnérabilités #Gouvernance_et_Écosystème #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- vulnérabilités techniques obtenues
-- preuves d'analyse
-- mesures appropriées prises</t>
-  </si>
-  <si>
-    <t>Contrôler que l'inventaire est pertinent, qu'il existe des preuves de vérification lees mesures prises</t>
-  </si>
-  <si>
-    <t>Obtenir des informations sur les vulnérabilités techniques des systèmes d'information, évaluer l'exposition de l'organisation à ces vulnérabilités et prendre les mesures appropriées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.09 </t>
-  </si>
-  <si>
-    <t>Gestion de la configuration</t>
-  </si>
-  <si>
-    <t>S'assurer que le matériel, les logiciels, les services et les réseaux fonctionnent correctement avec les paramètres de sécurité requis, et que la configuration n’est pas altérée par des changements non autorisés ou incorrects.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Configuration_sécurisée #Protection</t>
-  </si>
-  <si>
-    <t>- Systèmes concernés 
-- documentations de configuration
-- vérifications réalisées</t>
-  </si>
-  <si>
-    <t>Contrôler que l'inventaire des systèmes concernés est complet, la documentation de configuration et que des contrôles sont réalisés</t>
-  </si>
-  <si>
-    <t>Vérifier le matériel, les logiciels, les services et les réseaux afin de s'assurer qu'ils fonctionnent correctement avec les paramètres de sécurité requis, et que la configuration n’est pas altérée par des changements non autorisés ou incorrects.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.10 </t>
-  </si>
-  <si>
-    <t>Suppression d'information</t>
-  </si>
-  <si>
-    <t>Empêcher l'exposition inutile des informations sensibles et se conformer aux exigences légales, statutaires, réglementaires et contractuelles relatives à la suppression d'informations.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Protéger #Protection_des_informations #Réglementation_et_conformité #Protection</t>
-  </si>
-  <si>
-    <t>- Inventaire des exigences légales,  statutaires, réglementaires et contractuelles relatives à la suppression d'informations
-- Informations, dispositifs et informations concernées
-- Preuves de suppression sécurisée des informations</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire des exigences, les informations concernées et les preuves de suppression</t>
-  </si>
-  <si>
-    <t>Supprimer l'information stockée dans les systèmes d'information et les dispositifs lorsqu'elle n'est plus utile.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.11 </t>
-  </si>
-  <si>
-    <t>Masquage des données</t>
-  </si>
-  <si>
-    <t>Limiter l'exposition des données sensibles, y compris les DCP, et se conformer aux exigences légales, statutaires, réglementaires et contractuelles.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Protéger #Protection_des_informations #Protection</t>
-  </si>
-  <si>
-    <t>- Procédure de masquage des données
-- Données concernées
-- Preuves d'application du masquage</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence et la mise à jour de la procédure de masquage, la pertinence des données concernées et l'application du masquage</t>
-  </si>
-  <si>
-    <t>Utiliser le masquage des données conformément à la politique de l'organisation portant sur le thème du contrôle d'accès et aux exigences métier, tout en prenant en compte les exigences d'ordre légal.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.12 </t>
-  </si>
-  <si>
-    <t>Prévention de la fuite de données</t>
-  </si>
-  <si>
-    <t>Détecter et empêcher la divulgation et l'extraction non autorisées d'informations par des personnes ou des systèmes.</t>
-  </si>
-  <si>
-    <t>#Préventive #Détective #Confidentialité #Protéger #Détecter #Protection_des_informations #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- Procédure de prévention de la fuite de données
-- Données concernées
-- Preuve d'application des mesures</t>
-  </si>
-  <si>
-    <t>- Contrôler l'existence et la date de la procédure
-- Contrôler les données concernées
-- Contrôler l'application des mesures</t>
-  </si>
-  <si>
-    <t>Appliquer des mesures de prévention de la fuite de données aux systèmes, réseaux et terminaux qui traitent, stockent ou transmettent de l'information sensible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.13 </t>
-  </si>
-  <si>
-    <t>Sauvegarde des informations</t>
-  </si>
-  <si>
-    <t>Permettre la récupération en cas de perte de données ou de systèmes.</t>
-  </si>
-  <si>
-    <t>#Corrective #Intégrité #Disponibilité #Rétablir #Continuité #Protection</t>
-  </si>
-  <si>
-    <t>- Politique de sauvegarde
-- Copies de sauvegarde
-- Tests de copies de sauvegarde</t>
-  </si>
-  <si>
-    <t>- Contrôler l'existence et la mise à jour de la politique de sauvegarde
-- Existence des copies de sauvegarde
-- Tests des copies de sauvegarde</t>
-  </si>
-  <si>
-    <t>Conserver des copies de sauvegarde de l'information, des logiciels et des systèmes et de les tester régulièrement à l'aide de la politique définie sur le thème de la sauvegarde.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.14 </t>
-  </si>
-  <si>
-    <t>Redondance des moyens de traitement de l'information</t>
-  </si>
-  <si>
-    <t>S'assurer du fonctionnement continu des moyens de traitement de l'information.</t>
-  </si>
-  <si>
-    <t>#Préventive #Disponibilité #Protéger #Continuité #Gestion_des_actifs #Protection #Résilience</t>
-  </si>
-  <si>
-    <t>- Inventaire des moyens de traitement de l'information concernés
-- exigence de disponibilité
-- preuve de redondance</t>
-  </si>
-  <si>
-    <t>Contrôler que l'inventaire est à jour, les exigences de disponibilité et l'existence de preuves de redondance</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre des moyens de traitement de l’information avec suffisamment de redondances pour répondre aux exigences de disponibilité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.15 </t>
-  </si>
-  <si>
-    <t>Journalisation</t>
-  </si>
-  <si>
-    <t>Enregistrer les événements, générer des preuves, assurer l'intégrité des informations de journalisation, empêcher les accès non autorisés, identifier les événements de sécurité de l'information qui peuvent engendrer un incident de sécurité de l'information et assister les investigations.</t>
-  </si>
-  <si>
-    <t>#Détective #Confidentialité #Intégrité #Disponibilité #Détecter #Gestion_des_événements_de_sécurité_de_l'information #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- inventaire des journaux
-- mesures de protection des journaux
-- stockage des journaux
-- analyses des journaux</t>
-  </si>
-  <si>
-    <t>Contrôler que les journaux existent et sont à jour, les mesures de protection des journaux
-les capacités de stockage et que l'analyse réalisée sur ces journaux.</t>
-  </si>
-  <si>
-    <t>Créer, protéger, stocker et dnalyser des journaux enregistrant les activités, exceptions, pannes et autres événements pertinents.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.16 </t>
-  </si>
-  <si>
-    <t>Activités de surveillance</t>
-  </si>
-  <si>
-    <t>Détecter les comportements anormaux et les éventuels incidents de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>#Détective #Corrective #Confidentialité #Intégrité #Disponibilité #Détecter #Répondre #Gestion_des_événements_de_sécurité_de_l'information #Défense</t>
-  </si>
-  <si>
-    <t>- Inventaire des réseaux, systèmes et applications concernées
-- Mesures de détection mise en place
-- Evaluation / Incidents détectés</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire des réseaux, systèmes et application concernés, les mesures de détection mises en place et que des évaluations sont réalisées ou des incidents générés</t>
-  </si>
-  <si>
-    <t>Surveiller les réseaux, systèmes et applications pour détecter tout comportement anormal et de prendre les mesures appropriées pour évaluer les incidents liés à la sécurité de l'information potentiels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.17 </t>
-  </si>
-  <si>
-    <t>Synchronisation des horloges</t>
-  </si>
-  <si>
-    <t>Permettre la corrélation et l'analyse d’événements de sécurité et autres données enregistrées, assister les investigations sur les incidents de sécurité de l'information.</t>
-  </si>
-  <si>
-    <t>#Détective #Intégrité #Protéger #Détecter #Gestion_des_événements_de_sécurité_de_l'information #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- inventaire des horloges concernées
-- source temporelle unique
-- mécanisme de synchronisation
-- effectivité de la synchronisation</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire des horloges, la source temporelle unique utilisée et la synchronisation des horloges sur la source</t>
-  </si>
-  <si>
-    <t>Synchronisées sur une source de référence temporelle unique les horloges de l’ensemble des systèmes de traitement de l’information concernés d’une organisation ou d’un domaine de sécurité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.18 </t>
-  </si>
-  <si>
-    <t>Utilisation de programmes utilitaires à privilèges</t>
-  </si>
-  <si>
-    <t>S'assurer que l'utilisation de programmes utilitaires ne nuise pas aux mesures de sécurité de  l'information des systèmes et des applications.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_système_et_réseau #Configuration_sécurisée #Sécurité_des_applications #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire des programmes utilitaires
-- contrôles mis en place</t>
-  </si>
-  <si>
-    <t>Contrôler l'application des contrôles sur l'utilisation des programmes utilitaires</t>
-  </si>
-  <si>
-    <t>Faire l'inventaire des programmes utilitaires permettant de contourner les mesures de sécurité d’un système ou d’une application, limiter et étroitement contrôler leur utilisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.19 </t>
-  </si>
-  <si>
-    <t>Installation de logiciels sur des systèmes en exploitation</t>
-  </si>
-  <si>
-    <t>Assurer l'intégrité des systèmes opérationnels et empêcher l'exploitation des vulnérabilités techniques.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Configuration_sécurisée #Sécurité_des_applications #Protection</t>
-  </si>
-  <si>
-    <t>- procédures de contrôle d'installation
-- mise en oeuvre des mesures</t>
-  </si>
-  <si>
-    <t>Contrôler l'effectivité de la procédure de contrôle d'installation</t>
-  </si>
-  <si>
-    <t>Mettre en œuvre des procédures sont mises en œuvre pour contrôler l’installation de logiciels dans les systèmes opérationnels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.20 </t>
-  </si>
-  <si>
-    <t>Mesures liées aux réseaux</t>
-  </si>
-  <si>
-    <t>Protéger les informations dans les réseaux et les moyens de traitement de l'information support contre  les compromission via le réseau.</t>
-  </si>
-  <si>
-    <t>#Préventive #Détective #Confidentialité #Intégrité #Disponibilité #Protéger #Détecter #Sécurité_système_et_réseau #Protection</t>
-  </si>
-  <si>
-    <t>- réseaux concernés
-- contrôles mis en œuvre
-- vérification des contrôles</t>
-  </si>
-  <si>
-    <t>Contrôler que des contrôles sont en place et que ces contrôles sont effectifs</t>
-  </si>
-  <si>
-    <t>Gérer et contrôler les réseaux pour protéger l’information contenue dans les systèmes et les applications.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.21 </t>
-  </si>
-  <si>
-    <t>Sécurité des services en réseau</t>
-  </si>
-  <si>
-    <t>Assurer la sécurité lors de l'utilisation des services réseau.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_système_et_réseau #Protection</t>
-  </si>
-  <si>
-    <t>- Inventaire des services de réseau concernés
-- Mécanismes de sécurité, niveaux de service et exigence de gestion identifiée</t>
-  </si>
-  <si>
-    <t>Contrôler que l'inventaire des services de réseau concernés est complet et à jour, que les mécanismes de sécurité de niveaux de service et les exigences sont identifiés et sont intégrés dans les accords de service</t>
-  </si>
-  <si>
-    <t>Pour tous les services de réseau, identifier et intégrer dans les accords de services de réseau, les mécanismes de sécurité, les niveaux de service et les exigences de gestion.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.22 </t>
-  </si>
-  <si>
-    <t>Filtrage Internet</t>
-  </si>
-  <si>
-    <t>Diviser le réseau en périmètres de sécurité et contrôler le trafic entre eux en fonction des besoins  métier.</t>
-  </si>
-  <si>
-    <t>- mesures d'accès mises en place
-- blocages réalisés</t>
-  </si>
-  <si>
-    <t>Contrôler les règles d'accès aux sites web externes et les blocages réalisés.</t>
-  </si>
-  <si>
-    <t>Gérer l'accès aux sites Web externes pour réduire l'exposition à tout contenu malveillant.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.23 </t>
-  </si>
-  <si>
-    <t>Cloisonnement des réseaux</t>
-  </si>
-  <si>
-    <t>Protéger les systèmes contre la compromission des programmes malveillants et empêcher l'accès aux  ressources web non autorisées.</t>
-  </si>
-  <si>
-    <t>- inventaire des groupes de services d'information, d'utilisateurs et de systèmes d'information
-- mesures de cloisonnement réseau</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire des groupes de services d'information, d'utilisateurs et de systèmes d'information et la mise en place des mesures de cloisonnement réseau</t>
-  </si>
-  <si>
-    <t>Cloisonner sur les réseaux les groupes de services d’information, d’utilisateurs et de systèmes d’information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.24 </t>
-  </si>
-  <si>
-    <t>Utilisation de la cryptographie</t>
-  </si>
-  <si>
-    <t>Assurer l’utilisation correcte et efficace de la cryptographie afin de protéger la confidentialité,  l'authenticité ou l'intégrité des informations conformément aux exigences métier et de sécurité de  l'information, et en tenant compte des exigences légales, statutaires, réglementaires et contractuelles  relatives à la cryptographie.</t>
-  </si>
-  <si>
-    <t>- Règles d'utilisation de la cryptographie
-- Preuves d'élaboration et de mise en œuvre de ces règles
-- Clés et algorithmes cryptographiques utilisés</t>
-  </si>
-  <si>
-    <t>Contrôles les règles d'utilisation des mesures de cryptographie, leur élaboration et leur mise en œuvre ainsi que les clés et algorithmes cryptographiqes utilisés.</t>
-  </si>
-  <si>
-    <t>Définir et de mettre en oeuvre des règles relatives à l'utilisation de la cryptographie, notamment la gestion des clés cryptographiques.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.25 </t>
-  </si>
-  <si>
-    <t>Cycle de vie de développement sécurisé</t>
-  </si>
-  <si>
-    <t>S'assurer que la sécurité de l'information est conçue et mise en œuvre au cours du cycle de vie de  développement sécurisé des logiciels et des systèmes.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_des_applications #Sécurité_système_et_réseau #Protection</t>
-  </si>
-  <si>
-    <t>- règles de développement
-- développements réalisés
-- preuves d'application des règles</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence des règles de développement, leur mise à jour et l'application des règles de développement</t>
-  </si>
-  <si>
-    <t>Etablir et appliquer des règles de développement des logiciels et des systèmes aux développements de l’organisation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.26 </t>
-  </si>
-  <si>
-    <t>Exigences de sécurité des applications</t>
-  </si>
-  <si>
-    <t>S'assurer que toutes les exigences de sécurité de l'information sont identifiées et traitées lors du  développement ou de l’acquisition d'applications.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_des_applications #Sécurité_système_et_réseau #Protection #Défense</t>
-  </si>
-  <si>
-    <t>- services d'application transmis sur les réseaux publics
-- mesures de protection</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire des services réseau et l'effectivité des mesures contre les activités frauduleuses, les différents contractuels, ainsi que la divulgation et la modification non autorisées.</t>
-  </si>
-  <si>
-    <t>Protéger contre les activités frauduleuses, les différents contractuels, ainsi que la divulgation et la modification non autorisées les informations liées aux services d’application transmises sur les réseaux publics.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.27 </t>
-  </si>
-  <si>
-    <t>Principes d'ingénierie et d'architecture système sécurisée</t>
-  </si>
-  <si>
-    <t>S'assurer que les systèmes d'information sont conçus, mis en œuvre et exploités de manière sécurisée  au cours du cycle de vie de développement.</t>
-  </si>
-  <si>
-    <t>- principes d'ingénierie de la sécurité des systèmes
-- travaux de mise en œuvre des systèmes d'information</t>
-  </si>
-  <si>
-    <t>Contrôler que les principes d'ingénierie sont établis et mis à jour et que ces principes sont appliqués dans les travaux de mise en ouvre des systèmes d'information</t>
-  </si>
-  <si>
-    <t>Etablir et documenter des principes d’ingénierie de la sécurité des systèmes, les tenir à jour et les appliquer à tous les travaux de mise en œuvre des systèmes d’information.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.28 </t>
-  </si>
-  <si>
-    <t>Codage sécurisé</t>
-  </si>
-  <si>
-    <t>S'assurer que les logiciels sont développés de manière sécurisée afin de réduire le nombre d’éventuelles  vulnérabilités de sécurité de l'information dans les logiciels.</t>
-  </si>
-  <si>
-    <t>- inventaire des développements réalisés
-- preuves d'application des règles de codage</t>
-  </si>
-  <si>
-    <t>Contrôler l'inventaire des développements réalisés et l'application de règles de codage</t>
-  </si>
-  <si>
-    <t>Appliquer des principes de codage sécurisé au développement de logiciels.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.29 </t>
-  </si>
-  <si>
-    <t>Tests de sécurité dans le développement et l'acceptation</t>
-  </si>
-  <si>
-    <t>Valider le respect des exigences de sécurité de l'information lorsque des applications ou des codes sont  déployés dans l'environnement .</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Identifier #Sécurité_des_applications #Assurance_de_sécurité_de_l'information #Sécurité_système_et_réseau #Protection</t>
-  </si>
-  <si>
-    <t>- programmes de tests de conformités
-- nouveaux systèmes, mises à jour et nouvelles versions
-- tests réalisés</t>
-  </si>
-  <si>
-    <t>Contrôler que des tests sont réalisés sur les nouveaux systèmes, lors de mise ) jour er sur les nouvelles versions</t>
-  </si>
-  <si>
-    <t>Réaliser des tests de fonctionnalité de la sécurité pendant le développement.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.30 </t>
-  </si>
-  <si>
-    <t>Développement externalisé</t>
-  </si>
-  <si>
-    <t>S'assurer que les mesures de sécurité de l'information requises par l'organisation sont mises en œuvre  dans le cadre du développement externalisé des systèmes.</t>
-  </si>
-  <si>
-    <t>#Préventive #Détective #Confidentialité #Intégrité #Disponibilité #Identifier #Protéger #Détecter #Sécurité_système_et_réseau #Sécurité_des_applications #Sécurité_des_relations_fournisseurs #Gouvernance_et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- développements externalisés
-- contrôles réalisés</t>
-  </si>
-  <si>
-    <t>Contrôler que des contrôles sont réalisés sur les développements externalisés.</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : anomalie
-Rourge : non-conforme</t>
-  </si>
-  <si>
-    <t>Superviser et contrôler l’activité de développement du système externalisée.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.31 </t>
-  </si>
-  <si>
-    <t>Séparation des environnements de développement, de test et de production</t>
-  </si>
-  <si>
-    <t>Protéger l'environnement opérationnel et les données correspondantes contre les compromissions qui  pourraient être dues aux activités de développement et de test.</t>
-  </si>
-  <si>
-    <t>- inventaire des applications concernées
-- environnements de développement, de test et d'exploitation
-- mesures de séparation des environnements</t>
-  </si>
-  <si>
-    <t>Contrôler la présence des environnements pour chaque application et l'effectivité de la séparation des environnements</t>
-  </si>
-  <si>
-    <t>Séparer les environnements de développement, de test et d’exploitation pour réduire les risques d’accès ou de changements non autorisés dans l’environnement en exploitation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.32 </t>
-  </si>
-  <si>
-    <t>Gestion des changements</t>
-  </si>
-  <si>
-    <t>Préserver la sécurité de l'information lors de l'exécution des changements.</t>
-  </si>
-  <si>
-    <t>- procédure de gestion des changements
-- changements réalisés</t>
-  </si>
-  <si>
-    <t>Contrôler la procédure gestion des changements, sa mise à jour et les changements réalisés suivent la procédure</t>
-  </si>
-  <si>
-    <t>Contrôler les changements des systèmes dans le cadre du cycle de développement par le biais de procédures formelles.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.33 </t>
-  </si>
-  <si>
-    <t>Informations relatives aux tests</t>
-  </si>
-  <si>
-    <t>Assurer la pertinence des tests et la protection des informations opérationnelles utilisées pour les tests.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Protéger #Protection_des_informations #Protection</t>
-  </si>
-  <si>
-    <t>- inventaire des environnements contenant des données de test
-- mesures de protection appliquées (anonymisation)</t>
-  </si>
-  <si>
-    <t>Contrôler l'application des mesures de protection aux données de test</t>
-  </si>
-  <si>
-    <t>Sélectionner avec soin, protéger et contrôler les données de test.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.34 </t>
-  </si>
-  <si>
-    <t>Protection des systèmes d'information en cours d'audit et de test</t>
-  </si>
-  <si>
-    <t>Minimiser l'impact des activités d'audit et autres activités d'assurance sur les systèmes opérationnels  et les processus métier.</t>
-  </si>
-  <si>
-    <t>#Préventive #Confidentialité #Intégrité #Disponibilité #Protéger #Sécurité_système_et_réseau #Protection_des_informations #Gouvernance_et_Écosystème #Protection</t>
-  </si>
-  <si>
-    <t>- exigences et activités d'audit impliquant des vérifications sur des systèmes en exploitation
-- prévision et validation des activités
-- perturbations engendrées par ces vérifications</t>
-  </si>
-  <si>
-    <t>Contrôler les exigences, la prévision et la validation des activités et l’existence de perturbations engendrées par ces vérifications</t>
-  </si>
-  <si>
-    <t>Vert : conforme
-Orange : anomalie
-Rouge :  non-conforme</t>
-  </si>
-  <si>
-    <t>Prévoir avec soin et valider les exigences et activités d’audit impliquant des vérifications sur des systèmes en exploitation afin de réduire au minimum les perturbations subies par les processus métier.</t>
-  </si>
-  <si>
-    <t>8.x</t>
-  </si>
-  <si>
-    <t>Fonctionnement</t>
-  </si>
-  <si>
-    <t>Contrôler le fonctionnement du SMSI, apprécier et traiter les risques.</t>
-  </si>
-  <si>
-    <t>- contrôle des processus du SMSI
-- appréciations des risques
-- plan de traitement des risques</t>
-  </si>
-  <si>
-    <t>Contrôler que l'appréciation des risques et le plan de traitement des risques sont à jour.</t>
-  </si>
-  <si>
-    <t>Planifier, mettre en œuvre et contrôler les processus nécessaires à la satisfaction des exigences liées à la sécurité de l’information ;
-Réaliser des appréciations des risques de sécurité de l’information ; et
-Mettre en œuvre le plan de traitement des risques de sécurité de l’information.</t>
-  </si>
-  <si>
-    <t>Audit Interne</t>
-  </si>
-  <si>
-    <t>Recueillir des informations permettant de déterminer si le système de management de la sécurité de l'information est conforme et efficacement mise en œuvre et maintenu.</t>
-  </si>
-  <si>
-    <t>- Plan d'audit interne
-- Audits internes réalisés
-- Plan dactions</t>
-  </si>
-  <si>
-    <t>Contrôler l'existence et la cohérence du plan d'audit interne, des audits internes réalisés et le suivi des plans d'action</t>
-  </si>
-  <si>
-    <t>Définir un plan d'audit interne.
-Réaliser des audits internes
-Suivre les recommandations d'audit dans un plan d'action</t>
-  </si>
-  <si>
-    <t>Revue de Direction</t>
-  </si>
-  <si>
-    <t>S'assurer que le SMSI est toujours approprié, adapté et efficace.</t>
-  </si>
-  <si>
-    <t>- Documentation de la revue de direction</t>
-  </si>
-  <si>
-    <t>Contrôler la documentation de la revue de direction, son contenu et les conclusions de la revue.</t>
-  </si>
-  <si>
-    <t>Planifier une revue de direction conformément aux attentes de la norme</t>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t> Clause</t>
+  </si>
+  <si>
+    <t> Name</t>
+  </si>
+  <si>
+    <t> Objective</t>
+  </si>
+  <si>
+    <t> Attributes</t>
+  </si>
+  <si>
+    <t> Data</t>
+  </si>
+  <si>
+    <t> Model</t>
+  </si>
+  <si>
+    <t> Indicator</t>
+  </si>
+  <si>
+    <t> Action plan</t>
+  </si>
+  <si>
+    <t> 27001:2022</t>
+  </si>
+  <si>
+    <t> Continuous improvement</t>
+  </si>
+  <si>
+    <t> Implement continuous improvement within the SMSI.</t>
+  </si>
+  <si>
+    <t> - continuous improvement plan</t>
+  </si>
+  <si>
+    <t> Monitor the improvement of the relevance, adequacy and effectiveness of the information security management system.</t>
+  </si>
+  <si>
+    <t> Green: compliant Red: non-compliant</t>
+  </si>
+  <si>
+    <t> Continually improve the relevance, adequacy and effectiveness of the information security management system.</t>
+  </si>
+  <si>
+    <t> Non-compliance and corrective actions</t>
+  </si>
+  <si>
+    <t> Ensure that non-conformities and corrective actions are addressed.</t>
+  </si>
+  <si>
+    <t> - The plan for monitoring non-conformities and corrective actions</t>
+  </si>
+  <si>
+    <t> Control the plan for dealing with non-conformities and corrective actions</t>
+  </si>
+  <si>
+    <t>Implement a plan to manage non-conformities and corrective actions</t>
+  </si>
+  <si>
+    <t> 4.x</t>
+  </si>
+  <si>
+    <t> Understanding the organization and its context</t>
+  </si>
+  <si>
+    <t> Understand the organization and its context, define the scope and implement an ISMS</t>
+  </si>
+  <si>
+    <t> - Understanding the organization and its context - Understanding the needs and expectations of interested parties - Determination of the scope of application of the ISMS - Information security management system</t>
+  </si>
+  <si>
+    <t> Control the understanding of the organization and its context, the understanding of the needs and expectations of interested parties, the area of application and the information security management system.</t>
+  </si>
+  <si>
+    <t> Review understanding of the organization and its context</t>
+  </si>
+  <si>
+    <t> 27001:2022-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.01</t>
+  </si>
+  <si>
+    <t> Information Security Policies</t>
+  </si>
+  <si>
+    <t>Continuously ensure the relevance, adequacy and effectiveness of management's orientations and its support for information security according to business, legal, statutory, regulatory and contractual requirements.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Governance #Governance_and_Ecosystem #Resilience</t>
+  </si>
+  <si>
+    <t> - information security policy set - approval evidence - dissemination evidence</t>
+  </si>
+  <si>
+    <t> Control the existence of all security policies, their validation, their distribution and communication to employees and third parties concerned.</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: minor violations Red: non-compliant</t>
+  </si>
+  <si>
+    <t>Establish information security policy and thematic policies, have them approved by management, publish them, communicate them and seek confirmation from relevant staff and interested parties, as well as review at scheduled intervals and if significant changes occur.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.02</t>
+  </si>
+  <si>
+    <t> Information Security Duties and Responsibilities</t>
+  </si>
+  <si>
+    <t> Establish a defined, approved and understood structure for the implementation, operation and management of information security within the organization.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Governance #Governance_and_Ecosystem #Protection #Resilience</t>
+  </si>
+  <si>
+    <t> - Security organization policy - Assignment by management of responsibilities for information security</t>
+  </si>
+  <si>
+    <t>Control the definition and assignment of functions and responsibilities related to information security according to the needs of the organization.</t>
+  </si>
+  <si>
+    <t> Green: presence of evidence Orange: minor breach Red: absence of evidence</t>
+  </si>
+  <si>
+    <t> Define and assign all information security responsibilities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.03</t>
+  </si>
+  <si>
+    <t> Segregation of duties</t>
+  </si>
+  <si>
+    <t> Reduce the risk of fraud, error and circumvention of information security measures.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Governance #Management_of_iden_x0002_tities_and_access #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> - Definition of incompatible tasks and areas of responsibility</t>
+  </si>
+  <si>
+    <t> Ensure that incompatible tasks and areas of responsibility are separated</t>
+  </si>
+  <si>
+    <t> Green: presence of evidence Orange: minor non-compliance Red: absence of evidence</t>
+  </si>
+  <si>
+    <t> Separate incompatible tasks and areas of responsibility.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.04</t>
+  </si>
+  <si>
+    <t> Management Responsibilities</t>
+  </si>
+  <si>
+    <t> Ensure that management understands their role in information security and takes actions to ensure that all staff are aware of and carry out their information security responsibilities Oh good.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Governance #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> - communication from management - date of inspection</t>
+  </si>
+  <si>
+    <t> Check the existence of communication from management on the importance of information security.</t>
+  </si>
+  <si>
+    <t> Green: =&lt; 1 year Orange: &gt; 1 year Red: no communication</t>
+  </si>
+  <si>
+    <t> Issue a management communication on the importance of information security to the organization.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.05</t>
+  </si>
+  <si>
+    <t> Relations with the authorities</t>
+  </si>
+  <si>
+    <t>Ensure the adequate flow of information regarding information security, between the organization and the relevant legal, regulatory and supervisory authorities.</t>
+  </si>
+  <si>
+    <t> #Preventive #Corrective #Privacy #Integrity #Availability #Identify #Protect #Respond #Recover #Governance #Defense #Resilience</t>
+  </si>
+  <si>
+    <t> - security organization procedure - inventory of the competent authorities - proof of relationship with the authorities</t>
+  </si>
+  <si>
+    <t> The procedure and the inventory are up to date there is evidence of relationship with the authorities</t>
+  </si>
+  <si>
+    <t> Green: presence of evidence Orange: minor non-conformity Red: absence of evidence</t>
+  </si>
+  <si>
+    <t> Appropriate relations with the competent authorities must be maintained.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.06</t>
+  </si>
+  <si>
+    <t> Relations with specialized working groups</t>
+  </si>
+  <si>
+    <t> Ensure the proper flow of information regarding information security.</t>
+  </si>
+  <si>
+    <t>#Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Restore #Governance #Defense</t>
+  </si>
+  <si>
+    <t> - safety organization procedure - inventory of groups of specialists - proof of relationship with groups of specialists</t>
+  </si>
+  <si>
+    <t> The procedure and the inventory of specialist groups are up to date. There is evidence of a relationship with specialist groups.</t>
+  </si>
+  <si>
+    <t> Green: presence of evidence Orange: minor non-conformity Red: missing evidence</t>
+  </si>
+  <si>
+    <t> Review the procedure, update the inventory and maintain relationships with specialist groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.07</t>
+  </si>
+  <si>
+    <t> Threat intelligence</t>
+  </si>
+  <si>
+    <t> Provide knowledge of the organization's threat environment so that appropriate mitigation actions can be taken.</t>
+  </si>
+  <si>
+    <t>#Preventive #Detective #Corrective #Confidentiality #Integrity #Availability #Identification #Detect #Respond #Threat_and_vulnerability_management #Defense #Resilience</t>
+  </si>
+  <si>
+    <t> - sources of information on threats - proof of analyzes</t>
+  </si>
+  <si>
+    <t> There are sources of information and evidence of analyzes</t>
+  </si>
+  <si>
+    <t> Collect and analyze threat information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.08</t>
+  </si>
+  <si>
+    <t> Information Security in Project Management</t>
+  </si>
+  <si>
+    <t> Ensure that information security risks relating to projects and deliverables are addressed effectively in project management, throughout the project lifecycle.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Governance #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - security organization procedure - evidence of consideration of information security in project management</t>
+  </si>
+  <si>
+    <t>Monitor the consideration of information security in project management.</t>
+  </si>
+  <si>
+    <t> Green: presence of evidence Orange: minor non-conformity Red: absence of evidence</t>
+  </si>
+  <si>
+    <t> Integrate information security into the organization's project management activities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.09</t>
+  </si>
+  <si>
+    <t> Inventory of information and other related assets</t>
+  </si>
+  <si>
+    <t> Identify information and other associated assets of the organization to maintain their security and assign ownership appropriately.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Asset_management #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - extract from the inventory - physical control of the inventory - check the attribution of an owner</t>
+  </si>
+  <si>
+    <t> Control that an inventory of information and other associated assets, including their owners, is maintained and updated</t>
+  </si>
+  <si>
+    <t>Develop and maintain an inventory of information and other associated assets, including their owners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.10</t>
+  </si>
+  <si>
+    <t> Proper use of information and other associated assets</t>
+  </si>
+  <si>
+    <t> Ensure that information and other associated assets are protected, used and processed appropriately.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_protection #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - Rule for correct use of assets - Publication date</t>
+  </si>
+  <si>
+    <t> Check the existence of rules Compare the publication date to the check date</t>
+  </si>
+  <si>
+    <t> Identify, document and implement rules for the correct use and procedures for processing information and other associated assets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.11</t>
+  </si>
+  <si>
+    <t> Return of assets</t>
+  </si>
+  <si>
+    <t>Protect the organization's assets in the process of changing or terminating their employment, contract or agreement.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Protection</t>
+  </si>
+  <si>
+    <t> - sample of employees who left the organization over the period - proof of return of assets</t>
+  </si>
+  <si>
+    <t> Check the list of employees who have left the organization and proof of return of assets to the organization.</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: minor non-compliance Red: non-compliant</t>
+  </si>
+  <si>
+    <t> Staff and other interested parties, as necessary, return all assets of the organization in their possession in the event of a change or termination of their employment relationship, employment contract or engagement.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.12</t>
+  </si>
+  <si>
+    <t> Classification of information</t>
+  </si>
+  <si>
+    <t>Ensure the identification and understanding of information protection needs based on its importance to the organization.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Protection_of_information_x0002_mations #Protection #Defense</t>
+  </si>
+  <si>
+    <t> - check the date of update of the procedure - check with the DPO and lawyer the conformity of the procedure in view of the changes in the context of the organization</t>
+  </si>
+  <si>
+    <t> Control the existence and updating of the procedure and its content taking into account the context of the organization</t>
+  </si>
+  <si>
+    <t> Classify information in accordance with the organization's information security needs in terms of confidentiality, integrity, availability and the requirements of interested parties.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.13</t>
+  </si>
+  <si>
+    <t> Marking information</t>
+  </si>
+  <si>
+    <t>Facilitate the communication of information classification and support the automation of information management and processing.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Protection_of_information_x0002_mations #Defense #Protection</t>
+  </si>
+  <si>
+    <t> - marking procedure - sample information (procedure, form, etc.)</t>
+  </si>
+  <si>
+    <t> Control the branding procedure and its implementation on a sample of the organization's information.</t>
+  </si>
+  <si>
+    <t> Review the information marking procedure and its application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.14</t>
+  </si>
+  <si>
+    <t> Transfer of information</t>
+  </si>
+  <si>
+    <t> Maintain the security of information transferred within the organization and to any external interested parties</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Asset_management #Information_protection #Protection</t>
+  </si>
+  <si>
+    <t> rules, procedures or agreements for the transfer of information - inventory of the agreements concerned - terms of the agreements</t>
+  </si>
+  <si>
+    <t> Check the implementation of information transfer rules, procedures or agreements, the inventory of the agreements concerned and the terms of the agreements.</t>
+  </si>
+  <si>
+    <t> Implement policies, procedures and formal transfer measures to protect the transfer of information passing through all types of communication equipment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.15</t>
+  </si>
+  <si>
+    <t> Access control</t>
+  </si>
+  <si>
+    <t> Ensure authorized access and prevent unauthorized access to information and other associated assets.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Identity_and_access_management #Protection</t>
+  </si>
+  <si>
+    <t> - Access control policy - Policy review date - Control date</t>
+  </si>
+  <si>
+    <t>Control the definition and implementation of rules to manage physical and logical access to information and other related assets based on business and information security requirements.</t>
+  </si>
+  <si>
+    <t> Establish, document and review the access control policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.16</t>
+  </si>
+  <si>
+    <t> Identity management</t>
+  </si>
+  <si>
+    <t> To enable the unique identification of people and systems that access information and other associated assets of the organization, and to enable the appropriate assignment of access rights.</t>
+  </si>
+  <si>
+    <t> - user registration and deregistration process - date of check</t>
+  </si>
+  <si>
+    <t> Control the management of the complete identity lifecycle.</t>
+  </si>
+  <si>
+    <t> Manage the full lifecycle of identities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.17</t>
+  </si>
+  <si>
+    <t> Authentication information</t>
+  </si>
+  <si>
+    <t> Ensure correct entity authentication and avoid failures in authentication processes.</t>
+  </si>
+  <si>
+    <t> process for managing the allocation of secret authentication information</t>
+  </si>
+  <si>
+    <t> Check the existence and application of the process for managing the allocation of secret authentication information</t>
+  </si>
+  <si>
+    <t> Establish a formal process for managing the allocation of secret authentication information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.18</t>
+  </si>
+  <si>
+    <t> Access rights</t>
+  </si>
+  <si>
+    <t> Ensure that access to information and other related assets is defined and authorized in accordance with business requirements</t>
+  </si>
+  <si>
+    <t> - Process for controlling user access management - Evidence of application of the process for controlling user access management - Review of access rights</t>
+  </si>
+  <si>
+    <t> Control the existence of the process for controlling user access management, the validity of proof of application of the process and the review of access rights</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: anomaly Red: non-compliant</t>
+  </si>
+  <si>
+    <t>Access rights to information and other associated assets are provisioned, reviewed, modified and terminated in accordance with the organization's subject matter policy and access control rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.19</t>
+  </si>
+  <si>
+    <t> Information security in supplier relationships</t>
+  </si>
+  <si>
+    <t> Maintain the agreed level of information security in relationships with suppliers.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Security_of_supplier_relations #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - suppliers subject to information security requirements - information security requirements - acceptances by suppliers</t>
+  </si>
+  <si>
+    <t> Check that requirements are documented and updated and that measures are accepted by suppliers</t>
+  </si>
+  <si>
+    <t>Define and obtain acceptance from suppliers of information security requirements to limit risks resulting from these suppliers' access to the organization's assets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.20</t>
+  </si>
+  <si>
+    <t> Consideration of information security in agreements concluded with suppliers</t>
+  </si>
+  <si>
+    <t> - applicable requirements related to information security - suppliers concerned - agreement with suppliers</t>
+  </si>
+  <si>
+    <t> Check that requirements are documented and updated and that requirements are agreed with suppliers</t>
+  </si>
+  <si>
+    <t> Establish and agree with each provider that can access, process, store, communicate or provide components of the IT infrastructure intended for the organization's information, applicable requirements related to information security.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.21</t>
+  </si>
+  <si>
+    <t> Information security management in the ICT supply chain</t>
+  </si>
+  <si>
+    <t> suppliers concerned - requirements on risk treatment - agreements concluded with these suppliers</t>
+  </si>
+  <si>
+    <t> Check the requirements are documented and that the agreements concluded contain the requirements</t>
+  </si>
+  <si>
+    <t> Include in agreements with vendors requirements for addressing information security risks associated with the supply chain of IT products and services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.22</t>
+  </si>
+  <si>
+    <t> Follow-up, review and change management of supplier services</t>
+  </si>
+  <si>
+    <t> Maintain an agreed level of information security and service delivery, in accordance with agreements with suppliers.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Security_of_supplier_relations #Assurance_of_information_security #Governance_and_Ecosystem #Protection #Defense</t>
+  </si>
+  <si>
+    <t> - Suppliers concerned - Monitoring, verifications and audits carried out</t>
+  </si>
+  <si>
+    <t>Monitor that the organization regularly monitors, reviews, evaluates and manages changes in supplier practices relating to information security and service delivery.</t>
+  </si>
+  <si>
+    <t> Monitor, verify and audit the delivery of services provided by suppliers at regular intervals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.23</t>
+  </si>
+  <si>
+    <t> Information security in the use of cloud services</t>
+  </si>
+  <si>
+    <t> Specify and manage information security when using cloud services.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Security_of_supplier_relations #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - Relevant cloud services - Processes for acquisition, use, management and termination of cloud services - Evidence of application of acquisition, use, management and termination processes</t>
+  </si>
+  <si>
+    <t>Monitor that the processes for acquiring, using, managing and terminating cloud services are defined in accordance with the organization's information security requirements.</t>
+  </si>
+  <si>
+    <t> Define and monitor processes for acquiring, using, managing and terminating cloud services in accordance with the organization's information security requirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.24</t>
+  </si>
+  <si>
+    <t> Information security incident management planning and preparation</t>
+  </si>
+  <si>
+    <t> Ensure a rapid, effective, consistent and orderly response to information security incidents, including communication on information security events.</t>
+  </si>
+  <si>
+    <t> #Fix #Privacy #Integrity #Availability #Respond #Recover #Governance #Information_Security_Event Management #Defense</t>
+  </si>
+  <si>
+    <t> - incident management procedure - update date</t>
+  </si>
+  <si>
+    <t>Check that responsibilities for incident management are defined Check that the incident management procedure exists and is up to date</t>
+  </si>
+  <si>
+    <t> Establish responsibilities and procedures to ensure a rapid, effective and relevant response in the event of an information security incident.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.25</t>
+  </si>
+  <si>
+    <t> Assessment of events related to information security and decision-making</t>
+  </si>
+  <si>
+    <t> Ensure effective categorization and prioritization of information security events.</t>
+  </si>
+  <si>
+    <t> #Detective #Privacy #Integrity #Availability #Detect #Respond #Information_security_event_handling #Defense</t>
+  </si>
+  <si>
+    <t> - list of incidents - selection process - list of information security incidents</t>
+  </si>
+  <si>
+    <t> Check that the selection process is applied</t>
+  </si>
+  <si>
+    <t> Review the incident assessment process</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.26</t>
+  </si>
+  <si>
+    <t>Response to information security incidents</t>
+  </si>
+  <si>
+    <t> Ensure an efficient and effective response to information security incidents.</t>
+  </si>
+  <si>
+    <t> #Fix #Privacy #Integrity #Availability #Respond #Revert #Information_security_event_handling #Defense</t>
+  </si>
+  <si>
+    <t> Security incident management procedure Evidence of application of the procedure</t>
+  </si>
+  <si>
+    <t> Check that the procedure exists and is up to date Check that the procedure is followed</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: anomaly Red: non-compliant</t>
+  </si>
+  <si>
+    <t> Handle information security incidents in accordance with documented procedures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.27</t>
+  </si>
+  <si>
+    <t> Learning from Information Security Incidents</t>
+  </si>
+  <si>
+    <t> Reduce the likelihood or consequences of future incidents.</t>
+  </si>
+  <si>
+    <t>#Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Information_security_event_management #Defense</t>
+  </si>
+  <si>
+    <t> - Incident management procedure - Evidence of knowledge use</t>
+  </si>
+  <si>
+    <t> Check the existence of improvement in the procedure Check the existence of proof of improvement</t>
+  </si>
+  <si>
+    <t> Use knowledge gained from incident analysis and resolution to reduce the likelihood or impact of future incidents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.28</t>
+  </si>
+  <si>
+    <t> Collection of evidence</t>
+  </si>
+  <si>
+    <t> Ensure consistent and effective management of evidence relating to information security incidents for the purposes of legal or disciplinary actions.</t>
+  </si>
+  <si>
+    <t> #Fixed #Privacy #Integrity #Availability #Detect #Respond #Information_security_event_handling #Defense</t>
+  </si>
+  <si>
+    <t> - evidence collection procedure - proof of evidence collection</t>
+  </si>
+  <si>
+    <t>Check the documentation of the collection of evidence in the procedure Control the application of the collection of evidence</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: anomaly Red: non-compliant</t>
+  </si>
+  <si>
+    <t> Define and apply procedures for identifying, collecting, acquiring and protecting information that can be used as evidence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.29</t>
+  </si>
+  <si>
+    <t> Information security during a disruption</t>
+  </si>
+  <si>
+    <t> Protect information and other associated assets during a disruption.</t>
+  </si>
+  <si>
+    <t> #Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Continuity #Protection #Resilience</t>
+  </si>
+  <si>
+    <t> - Business continuity management procedure - Security and continuity requirements - Evidence of verification of measures</t>
+  </si>
+  <si>
+    <t> Check the existence and updating of the procedure Check the security and continuity requirements</t>
+  </si>
+  <si>
+    <t>Determine your requirements for information security and continuity of information security management in unfavorable situations, such as during a crisis or disaster.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.30</t>
+  </si>
+  <si>
+    <t> ICT readiness for business continuity</t>
+  </si>
+  <si>
+    <t> Ensure the availability of information and other associated assets of the organization during a disruption.</t>
+  </si>
+  <si>
+    <t> #Fix #Availability #Respond #Continuity #Resilience</t>
+  </si>
+  <si>
+    <t> - Systems concerned - Continuity objectives - Continuity tests</t>
+  </si>
+  <si>
+    <t> Control the identification of systems and their security objectives Control the performance of continuity tests</t>
+  </si>
+  <si>
+    <t> Identify business continuity objectives and ICT continuity requirements. Perform continuity tests.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.31</t>
+  </si>
+  <si>
+    <t> Identification of legal, statutory, regulatory and contractual requirements</t>
+  </si>
+  <si>
+    <t>Ensure compliance with legal, statutory, regulatory and contractual requirements relating to information security.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Regulation_and_compliance #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of current legal, statutory, regulatory and contractual requirements - approach adopted by the organization to meet these requirements</t>
+  </si>
+  <si>
+    <t> Check that the inventory is up to date and that the approach is documented</t>
+  </si>
+  <si>
+    <t> Explicitly define, document, and update all applicable legal, statutory, regulatory, and contractual requirements, and the organization's approach to meeting those requirements for each information system and for the organization itself .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.32</t>
+  </si>
+  <si>
+    <t> Intellectual property rights</t>
+  </si>
+  <si>
+    <t>Ensure compliance with legal, statutory, regulatory and contractual requirements relating to intellectual property rights and the use of proprietary products.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Regulations_and_compliance #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> - procedure to guarantee intellectual property - evidence of application of the procedure</t>
+  </si>
+  <si>
+    <t> Check the existence of the procedure and its updating and proof of application of the procedure</t>
+  </si>
+  <si>
+    <t> Implement appropriate procedures to ensure compliance with legal, regulatory and contractual requirements relating to intellectual property and the use of proprietary software licenses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.33</t>
+  </si>
+  <si>
+    <t> Protection of recordings</t>
+  </si>
+  <si>
+    <t>Ensure compliance with legal, statutory, regulatory and contractual requirements, as well as company or community expectations relating to the protection and availability of records.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Pro_x0002_téger #Regulation_and_confor_x0002_mity #Management_of_assets #Protection_of_information_x0002_tions #Defense</t>
+  </si>
+  <si>
+    <t> - recording protection measures - legal, regulatory, contractual and business requirements - Inventory of key information sources</t>
+  </si>
+  <si>
+    <t> - Check that the measures comply with the requirements. - Check the evidence of application of measures - Check the updating of the inventory of key information sources - Check the deletion of information</t>
+  </si>
+  <si>
+    <t>Protect records from loss, destruction, tampering, unauthorized access and unauthorized dissemination, in accordance with legal, regulatory, contractual and business requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.34</t>
+  </si>
+  <si>
+    <t> Personal data privacy and protection</t>
+  </si>
+  <si>
+    <t> Ensure compliance with legal, statutory, regulatory and contractual requirements relating to aspects of information security relating to the protection of personal data.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Information_Protection #Regulation_and_compliance #Protection</t>
+  </si>
+  <si>
+    <t> - Privacy policy - protection measures</t>
+  </si>
+  <si>
+    <t> Control the existence and updating of the privacy policy and the application of protection measures</t>
+  </si>
+  <si>
+    <t>Guarantee the protection of privacy and the protection of personal data as required by applicable legislation or regulations, and contractual clauses where applicable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.35</t>
+  </si>
+  <si>
+    <t> Independent Information Security Review</t>
+  </si>
+  <si>
+    <t> Ensure that the organization's approach to managing information security is continually appropriate, adequate and effective.</t>
+  </si>
+  <si>
+    <t> #Preventive #Cor_x0002_rective #Confidentiality #Integrity #Availability #Identify #Protect #Information_Security_Assurance #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> - Independent journals - Journal monitoring plan - Changes in organization</t>
+  </si>
+  <si>
+    <t>Monitor that independent reviews of the organization's approach to managing and implementing information security, including people, processes and technology, are conducted at defined intervals or when significant changes have occurred.</t>
+  </si>
+  <si>
+    <t> Conduct an independent review of the organization's approach to managing and implementing information security (i.e. monitoring security objectives, measures, policies, procedures and processes relating to security information) and put in place a monitoring plan for the review.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.36</t>
+  </si>
+  <si>
+    <t> Compliance with information security policies and standards</t>
+  </si>
+  <si>
+    <t> Ensure that information security is implemented and operating in accordance with the information security policy, topic-specific policies, rules and standards of the organization.</t>
+  </si>
+  <si>
+    <t>#Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Regulation_and_compliance #Information_security_assurance #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> - inventory of the information systems concerned - proof of verification</t>
+  </si>
+  <si>
+    <t> Check that compliance with the information security policy, topic policies and organizational standards is checked regularly.</t>
+  </si>
+  <si>
+    <t> Examine information systems for compliance with the organization's information security policies and standards.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.37</t>
+  </si>
+  <si>
+    <t> Documented operating procedures</t>
+  </si>
+  <si>
+    <t> Ensure the correct and secure operation of information processing resources.</t>
+  </si>
+  <si>
+    <t>#Preventive #Corrective #Privacy #Integrity #Availability #Protect #Recover #Asset_management #Physical_security #System_and_network_security #Application_security #Secure_configuration #Identity_and_access_management #Threat_and_vulnerability_management #Continuity #Event_management _information_security #Governance_and_Ecosystem #Protection #Defense</t>
+  </si>
+  <si>
+    <t> - operating procedure - availability of procedures to users</t>
+  </si>
+  <si>
+    <t> Control the existence and updating of operating procedures and the provision of procedures to the users concerned</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: anomalies Red: non-compliant</t>
+  </si>
+  <si>
+    <t> Document and make available to the users concerned the operating procedures.</t>
+  </si>
+  <si>
+    <t> 5.x</t>
+  </si>
+  <si>
+    <t> Leadership</t>
+  </si>
+  <si>
+    <t> Be able to lead the organization to achieve the objectives of the ISMS.</t>
+  </si>
+  <si>
+    <t> Evidence of management leadership - Information security policy - Definitions of information security roles, responsibilities and authorities</t>
+  </si>
+  <si>
+    <t> Monitor: - Evidence of leadership and management commitment - Information security policy - Roles, responsibilities and authorities within the organization</t>
+  </si>
+  <si>
+    <t> Define and assign roles, responsibilities and authorities regarding information security within the organization; Establish an information security policy; Identify the responsible persons by name.</t>
+  </si>
+  <si>
+    <t> 27001:2022-6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.01</t>
+  </si>
+  <si>
+    <t> Pre-selection</t>
+  </si>
+  <si>
+    <t> Ensure that all personnel are eligible and suitable to perform the duties for which they are candidates, and that they remain so throughout their employment.</t>
+  </si>
+  <si>
+    <t>#Preventive #Confidentiality #Integrity #Availability #Protect #Security_of_res_x0002_human_sources #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> - Candidate selection procedure - Evidence of execution of the selection process</t>
+  </si>
+  <si>
+    <t> Check the existence of an up-to-date procedure and the existence of evidence of execution of the selection process.</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: minor non-compliance Red: no evidence</t>
+  </si>
+  <si>
+    <t> Update the procedure and perform checks on all job applicants.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.02</t>
+  </si>
+  <si>
+    <t> General conditions of employment</t>
+  </si>
+  <si>
+    <t> Ensure that staff understand their responsibilities in terms of information security within the framework of the functions that the organization intends to entrust to them.</t>
+  </si>
+  <si>
+    <t> - definitions of terms - proof of existence of terms in agreements</t>
+  </si>
+  <si>
+    <t> Check the existence of the terms and proof of presence of the terms the agreements</t>
+  </si>
+  <si>
+    <t>Green: presence of evidence Orange: minor non-conformity Red: absence of evidence</t>
+  </si>
+  <si>
+    <t> Define the responsibilities and those of the organization in terms of information security in the contractual agreements between employees and subcontractors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.03</t>
+  </si>
+  <si>
+    <t> Information security awareness, learning and training</t>
+  </si>
+  <si>
+    <t> Ensure that staff and relevant interested parties are aware of and fulfill their information security responsibilities.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Security_of_res_x0002_human_sources #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> - information security awareness plan - attendance sheets</t>
+  </si>
+  <si>
+    <t> Check the existence of a security awareness plan and staff participation in training</t>
+  </si>
+  <si>
+    <t>Green: existence of a plan and presence of staff Orange: minor non-compliance Red: Lack of awareness</t>
+  </si>
+  <si>
+    <t> Raise awareness of information security among organizational personnel and interested parties, provide them with appropriate information security learning and training, and provide them with regular updates of the organization's policies and procedures. organization applicable to their function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.04</t>
+  </si>
+  <si>
+    <t> Disciplinary process</t>
+  </si>
+  <si>
+    <t> Ensure that staff and other relevant interested parties understand the consequences of violations of the information security policy, prevent such violations, and appropriately deal with staff and other interested parties who have committed violations .</t>
+  </si>
+  <si>
+    <t> #Preventive #Corrective #Confidentiality #Integrity #Availability #Protect #Respond #Human_resource_security #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> Disciplinary process - Communication of the process - Interested parties</t>
+  </si>
+  <si>
+    <t> Control that a disciplinary process for taking action against staff and other interested parties who have committed a violation of the information security policy is formalized and communicated.</t>
+  </si>
+  <si>
+    <t> Green: exists Orange: minor non-compliance Red: absence of evidence</t>
+  </si>
+  <si>
+    <t> Formalize and communicate a disciplinary process for taking action against staff and other interested parties who have committed an information security policy violation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.05</t>
+  </si>
+  <si>
+    <t> Responsibilities following the end or modification of the service contract</t>
+  </si>
+  <si>
+    <t> Protect the interests of the organization in the process of changing or terminating a job or contract.</t>
+  </si>
+  <si>
+    <t>#Preventive #Confidentiality #Integrity #Availability #Protect #Human_resources_security #Asset_management #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> - definition of terms - proofs of application</t>
+  </si>
+  <si>
+    <t> Existence of terms and evidence of application</t>
+  </si>
+  <si>
+    <t> Green: exists Orange: minor non-conformities Red: absence of evidence</t>
+  </si>
+  <si>
+    <t> Define the responsibilities and missions related to information security which remain valid following the termination, termination or modification of the employment contract.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.06</t>
+  </si>
+  <si>
+    <t> Confidentiality or non-disclosure commitments</t>
+  </si>
+  <si>
+    <t> Ensure the confidentiality of information accessible by staff or external parties.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Protect #Human_resources_security #Information_protection #Supplier_relations #Governance_and_Ecosystem</t>
+  </si>
+  <si>
+    <t> the requirements in terms of confidentiality or non-disclosure commitments are documented - the confidentiality commitments have been signed by the service providers during the last projects carried out.</t>
+  </si>
+  <si>
+    <t> Check that requirements are identified and documented</t>
+  </si>
+  <si>
+    <t> Identify, verify and document requirements for confidentiality or non-disclosure commitments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.07</t>
+  </si>
+  <si>
+    <t> Remote work</t>
+  </si>
+  <si>
+    <t> Ensure information security when staff work remotely.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Integrity #Availability #Protect #Asset_management #Information_protection #Physical_security #System_and_network_security #Protection</t>
+  </si>
+  <si>
+    <t> - Additional security measures - Evidence of application of additional measures</t>
+  </si>
+  <si>
+    <t> Check the existence and updating of additional security measures and evidence of application of these measures</t>
+  </si>
+  <si>
+    <t>Define and implement a policy and additional security measures to protect the information consulted, processed or stored on teleworking sites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 6.08</t>
+  </si>
+  <si>
+    <t> Reporting of Information Security Events</t>
+  </si>
+  <si>
+    <t> Enable the reporting of information security events that can be identified by personnel, in a timely, consistent and efficient manner.</t>
+  </si>
+  <si>
+    <t> #Detective #Privacy #Integrity #Availability #Detect #Information_Security_Event_Management #Defense</t>
+  </si>
+  <si>
+    <t> - Incident management procedure - Example of an incident reported by the hierarchical channels</t>
+  </si>
+  <si>
+    <t> Check the existence of the procedure, its application and its update</t>
+  </si>
+  <si>
+    <t> Report information security events as soon as possible through appropriate reporting lines.</t>
+  </si>
+  <si>
+    <t> 6.x</t>
+  </si>
+  <si>
+    <t> Planning</t>
+  </si>
+  <si>
+    <t> Implement actions to address risks and opportunities - Define information security objectives and plans to achieve them - Plan changes to the ISMS</t>
+  </si>
+  <si>
+    <t> - Risk assessment - Risk register - Risk treatment plan - Information security objectives</t>
+  </si>
+  <si>
+    <t> Control the actions implemented in the face of risks and opportunities - Information security objectives - ISMS modification plan</t>
+  </si>
+  <si>
+    <t> Implement actions to address risks and opportunities, information security objectives and an ISMS modification plan.</t>
+  </si>
+  <si>
+    <t> 27001:2022-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.01</t>
+  </si>
+  <si>
+    <t> Physical security perimeter</t>
+  </si>
+  <si>
+    <t> Prevent unauthorized physical access, damage, or interference to information and other associated assets of the organization.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_Security #Protection</t>
+  </si>
+  <si>
+    <t> definition of security perimeters - inventory of areas containing sensitive information</t>
+  </si>
+  <si>
+    <t> Check that security perimeters to protect areas that contain sensitive or critical information and other associated assets are defined.</t>
+  </si>
+  <si>
+    <t> Define security perimeters to protect areas containing sensitive or critical information and the means of processing the information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.02</t>
+  </si>
+  <si>
+    <t> Physical access controls</t>
+  </si>
+  <si>
+    <t> Ensure that only authorized physical access to information and other associated assets of the organization is possible.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_security #Identity_and_access_management #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of secure areas - adequate entry controls - application of controls</t>
+  </si>
+  <si>
+    <t>Check that secure areas are protected with adequate entry controls to ensure that only authorized personnel are admitted.</t>
+  </si>
+  <si>
+    <t> Implement adequate controls upon entry to secure areas to ensure that only authorized personnel are admitted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.03</t>
+  </si>
+  <si>
+    <t> Securing offices, rooms and equipment</t>
+  </si>
+  <si>
+    <t> Prevent unauthorized physical access, damage and interference to information and other associated assets of the organization in offices, rooms and facilities.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Physical_security #Asset_management #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of offices, rooms and equipment - physical security measures - application of measures</t>
+  </si>
+  <si>
+    <t> Control inventory, security measures and application of measures.</t>
+  </si>
+  <si>
+    <t>Design and apply physical security measures to offices, rooms and equipment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.04</t>
+  </si>
+  <si>
+    <t> Physical Security Monitoring</t>
+  </si>
+  <si>
+    <t> Detect and deter unauthorized physical access.</t>
+  </si>
+  <si>
+    <t> #Preventive #Detective #Confidentiality #Integrity #Availability #Protect #Detect #Physical_Security #Protection #Defense</t>
+  </si>
+  <si>
+    <t> - physical premises concerned - security measures put in place - evidence of surveillance</t>
+  </si>
+  <si>
+    <t> Control the application of continuous surveillance measures of premises</t>
+  </si>
+  <si>
+    <t> Identify the premises concerned, identify the measures to be put in place and continuously monitor unauthorized physical access</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.05</t>
+  </si>
+  <si>
+    <t> Protection against physical and environmental threats</t>
+  </si>
+  <si>
+    <t> Prevent or reduce the consequences of events resulting from physical or environmental threats.</t>
+  </si>
+  <si>
+    <t> inventory of natural disasters malicious attacks or accidents taken into account - physical protection measures - application of these measures</t>
+  </si>
+  <si>
+    <t> Control inventory and application of measures. Count the number of abnormalities.</t>
+  </si>
+  <si>
+    <t> Design and implement physical protection measures against natural disasters, malicious attacks or accidents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.06</t>
+  </si>
+  <si>
+    <t> Work in secure areas</t>
+  </si>
+  <si>
+    <t> Protect information and other associated assets in secure areas from damage and unauthorized interference by personnel working in those areas.</t>
+  </si>
+  <si>
+    <t> - procedure for working in secure areas - secure areas - application of the procedure</t>
+  </si>
+  <si>
+    <t> Check that the inventories exist and are up to date.</t>
+  </si>
+  <si>
+    <t> Design and apply procedures for working in secure areas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.07</t>
+  </si>
+  <si>
+    <t> Clean desktop and blank screen</t>
+  </si>
+  <si>
+    <t>Reduce the risk of unauthorized access, loss and damage to information on desks, screens and in other accessible locations during and outside normal working hours.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Protect #Physical_Security #Protection</t>
+  </si>
+  <si>
+    <t> - Clean desk policy - User compliance with policy</t>
+  </si>
+  <si>
+    <t> Monitor that clean desk rules for paper documents and removable storage media, and blank screen rules for information processing facilities are defined and enforced.</t>
+  </si>
+  <si>
+    <t> - Review the clean desk policy for paper documents and removable storage media, - Raise user awareness about respecting the clean desk and locked screen policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.08</t>
+  </si>
+  <si>
+    <t> Location and protection of equipment</t>
+  </si>
+  <si>
+    <t>Reduce risk from physical and environmental threats, and unauthorized access and damage.</t>
+  </si>
+  <si>
+    <t> - inventory of the equipment concerned - threats and environmental hazards retained - locations - measures implemented</t>
+  </si>
+  <si>
+    <t> Control the inventory of the equipment concerned and their locations. Check the application of protective measures.</t>
+  </si>
+  <si>
+    <t> Protect materials against the risks associated with environmental threats and hazards and the possibility of unauthorized access.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.09</t>
+  </si>
+  <si>
+    <t> Off-Premises Asset Security</t>
+  </si>
+  <si>
+    <t> Prevent loss, damage, theft, or compromise of off-site endpoints and disruption of organizational operations.</t>
+  </si>
+  <si>
+    <t> - security measures applied - evidence of application of security measures</t>
+  </si>
+  <si>
+    <t> Monitor the application of security measures</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: minor non-compliance Red: non-compliant</t>
+  </si>
+  <si>
+    <t>Apply safety measures to materials used off-site, taking into account the various risks associated with off-site work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.10</t>
+  </si>
+  <si>
+    <t> Storage media</t>
+  </si>
+  <si>
+    <t> Ensure that only authorized disclosure, modification, removal or destruction of organizational information on storage media is made.</t>
+  </si>
+  <si>
+    <t> - storage media management procedure - media samples - evidence of media management (conservation, classification, etc.) - Sample of transport carried out - Proof of transport - Evidence of disposal</t>
+  </si>
+  <si>
+    <t> Check that procedures for the management of removable media are implemented in accordance with the classification plan adopted by the organization. - Monitor that media that are no longer required are disposed of securely following formal procedures. - Check that the media containing information are protected against unauthorized access, user errors and alteration during transport.</t>
+  </si>
+  <si>
+    <t> Manage storage media through their lifecycle of acquisition, use, transportation, and disposal in accordance with the organization's classification plan and handling requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.11</t>
+  </si>
+  <si>
+    <t> General services</t>
+  </si>
+  <si>
+    <t> Prevent the loss, damage or compromise of information and other associated assets, or interruption of the organization's activities, caused by failures and disruptions of support services.</t>
+  </si>
+  <si>
+    <t>#Preventive #Detective #Integrity #Availability #Protect #Detect #Physical_Security #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of the equipment concerned - protective measures</t>
+  </si>
+  <si>
+    <t> Control the inventory of equipment and the application of protective measures.</t>
+  </si>
+  <si>
+    <t> Protect equipment from power outages and other disruptions due to failure of general services.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.12</t>
+  </si>
+  <si>
+    <t> Wiring Safety</t>
+  </si>
+  <si>
+    <t> Prevent the loss, damage, theft or compromise of information and other associated assets and the interruption of organizational activities related to electrical and communications cabling.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Availability #Protect #Physical_Security #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of the wiring concerned - protective measures against interception and damage</t>
+  </si>
+  <si>
+    <t> Control the wiring inventory and the application of measures</t>
+  </si>
+  <si>
+    <t>Protect electrical cables, carrying data or supporting information services against interception, interference or damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.13</t>
+  </si>
+  <si>
+    <t> Hardware Maintenance</t>
+  </si>
+  <si>
+    <t> Prevent the loss, damage, theft or compromise of information and other associated assets and interruption of the organization's activities caused by lack of maintenance.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Integrity #Availability #Protect #Physical_security #Asset_management #Protection #Resilience</t>
+  </si>
+  <si>
+    <t> - inventory of the equipment concerned - maintenance measures - proof of application of maintenance measures</t>
+  </si>
+  <si>
+    <t> Control the inventory of the equipment concerned, the maintenance measures and the application of the measures</t>
+  </si>
+  <si>
+    <t> Properly maintain equipment to guarantee its permanent availability and integrity.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7.14</t>
+  </si>
+  <si>
+    <t> Safe disposal or recycling of equipment</t>
+  </si>
+  <si>
+    <t>Avoid leaking information from material to be disposed of or reused.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Protect #Physical_security #Asset_management #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of equipment containing sensitive data - evidence of data erasure</t>
+  </si>
+  <si>
+    <t> Check that the inventory is up to date. Check the presence of evidence of data erasure</t>
+  </si>
+  <si>
+    <t> Ensure that any sensitive data has been removed and any licensed software has been uninstalled or securely overwritten from hardware containing sensitive data before disposal or reuse.</t>
+  </si>
+  <si>
+    <t> SKILLS</t>
+  </si>
+  <si>
+    <t> Have the necessary resources and skills for the implementation of the ISMS.</t>
+  </si>
+  <si>
+    <t> - Necessary resources - Skills matrix</t>
+  </si>
+  <si>
+    <t> Check that the necessary resources are available and have the necessary skills.</t>
+  </si>
+  <si>
+    <t>Have the necessary resources with the skills required for ISMS management.</t>
+  </si>
+  <si>
+    <t> 7.x</t>
+  </si>
+  <si>
+    <t> Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Raise awareness and communicate on the importance of information security and document the ISMS</t>
+  </si>
+  <si>
+    <t> - Awareness actions carried out - Communication to stakeholders - ISMS documentation process.</t>
+  </si>
+  <si>
+    <t> Monitor awareness-raising actions carried out and communication to stakeholders. Check the quality of ISMS documentation.</t>
+  </si>
+  <si>
+    <t> Raise awareness of the information security policy, communicate to stakeholders. Review the ISMS documentation.</t>
+  </si>
+  <si>
+    <t> 27001:2022-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.01</t>
+  </si>
+  <si>
+    <t> User terminals</t>
+  </si>
+  <si>
+    <t> Protect information from risks associated with the use of end-user devices.</t>
+  </si>
+  <si>
+    <t> - Security measures implemented - Inventory of user terminals - Evidence of application of protective measures</t>
+  </si>
+  <si>
+    <t>Control that any information stored on an end user terminal, processed by or accessible via this type of device and protected.</t>
+  </si>
+  <si>
+    <t> Green: presence of evidence Orange: minor non-conformity Red: absence of evidence</t>
+  </si>
+  <si>
+    <t> Protect any information stored or processed on an end-user terminal or accessible via this type of device.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.02</t>
+  </si>
+  <si>
+    <t> Access privileges</t>
+  </si>
+  <si>
+    <t> Ensure that only authorized users, software components, and services are granted privileged access rights.</t>
+  </si>
+  <si>
+    <t> - restrictions of privileged access rights - control of privileged access rights</t>
+  </si>
+  <si>
+    <t> Control the existence of privileged access rights restrictions and the allocation of privileged access rights</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: minor non-compliances Red: non-compliant</t>
+  </si>
+  <si>
+    <t> Restrict and control the allocation and use of privileged access rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.03</t>
+  </si>
+  <si>
+    <t>Restriction of access to information</t>
+  </si>
+  <si>
+    <t> Ensure authorized access only and prevent unauthorized access to information and other associated assets.</t>
+  </si>
+  <si>
+    <t> - restrictions on access to information - application of these restrictions</t>
+  </si>
+  <si>
+    <t> Control restrictions on access to information and the application of these restrictions in accordance with the policy on the subject of access control.</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: minor compliance Red: non-compliant</t>
+  </si>
+  <si>
+    <t> Review restrictions on access to information and their application</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.04</t>
+  </si>
+  <si>
+    <t> Access to source code</t>
+  </si>
+  <si>
+    <t> Prevent the introduction of unauthorized functionality, avoid unintentional or malicious modifications, and maintain the confidentiality of important intellectual property.</t>
+  </si>
+  <si>
+    <t>#Preventive #Confidentiality #Integrity #Availability #Protect #Identity_and_access_management #Application_security #Secure_configuration #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of the source code of the programs - restriction of access to the source code</t>
+  </si>
+  <si>
+    <t> Check the effectiveness of restricting access to program source code.</t>
+  </si>
+  <si>
+    <t> Restrict access to program source code.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.05</t>
+  </si>
+  <si>
+    <t> Secure authentication</t>
+  </si>
+  <si>
+    <t> Ensure that a user or entity is securely authenticated when granted access to systems, applications and services.</t>
+  </si>
+  <si>
+    <t> - secure connection procedures - application of the connection procedure</t>
+  </si>
+  <si>
+    <t> Control the application of secure connection procedures</t>
+  </si>
+  <si>
+    <t> When required by access control policy, control access to systems and applications through a secure login procedure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.06</t>
+  </si>
+  <si>
+    <t> Sizing</t>
+  </si>
+  <si>
+    <t>Ensure needs in terms of means of processing information, human resources, offices and other facilities.</t>
+  </si>
+  <si>
+    <t> #Preventive #Detective #Integrity #Availability #Identify #Protect #Detect #Continuity #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - monitored resources - evidence of resource monitoring and sizing - projection on future sizing</t>
+  </si>
+  <si>
+    <t> Control the inventory of monitored resources, evidence of monitoring and projections made</t>
+  </si>
+  <si>
+    <t> Monitor and adjust resource usage and make projections on future sizing to ensure required system performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.07</t>
+  </si>
+  <si>
+    <t> Protection against malware</t>
+  </si>
+  <si>
+    <t> Ensure that information and other associated assets are protected against malicious programs.</t>
+  </si>
+  <si>
+    <t>#Preventive #Detective #Corrective #Privacy #Integrity #Availability #Protect #Detect #System_and_network_security #Information_protection #Protection #Defense</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.08</t>
+  </si>
+  <si>
+    <t> Management of technical vulnerabilities</t>
+  </si>
+  <si>
+    <t> Prevent the exploitation of technical vulnerabilities.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Identify #Protect #Management_of_me_x0002_naces_and_vulnerabilities #Governance_and_Ecosystem #Protection #Defense</t>
+  </si>
+  <si>
+    <t> - technical vulnerabilities obtained - analysis evidence - appropriate measures taken</t>
+  </si>
+  <si>
+    <t> Check that the inventory is relevant, that there is proof of verification of the measures taken</t>
+  </si>
+  <si>
+    <t> Obtain information on technical vulnerabilities in information systems, assess the organization's exposure to these vulnerabilities and take appropriate action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.09</t>
+  </si>
+  <si>
+    <t> Configuration management</t>
+  </si>
+  <si>
+    <t>Ensure that hardware, software, services and networks operate properly with required security settings, and that the configuration is not altered by unauthorized or incorrect changes.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #Secure_configuration #Protection</t>
+  </si>
+  <si>
+    <t> - Systems concerned - configuration documentation - checks carried out</t>
+  </si>
+  <si>
+    <t> Check that the inventory of the systems concerned is complete, the configuration documentation and that checks are carried out</t>
+  </si>
+  <si>
+    <t> Check hardware, software, services, and networks to ensure that they are operating properly with required security settings, and that the configuration is not altered by unauthorized or incorrect changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.10</t>
+  </si>
+  <si>
+    <t> Deletion of information</t>
+  </si>
+  <si>
+    <t>Prevent unnecessary exposure of sensitive information and comply with legal, statutory, regulatory and contractual requirements relating to the deletion of information.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Protect #Protection_of_information #Regulation_and_compliance #Protection</t>
+  </si>
+  <si>
+    <t> - Inventory of legal, statutory, regulatory and contractual requirements relating to the deletion of information - Information, devices and information affected - Evidence of secure deletion of information</t>
+  </si>
+  <si>
+    <t> Check inventory of requirements, relevant information and evidence of deletion</t>
+  </si>
+  <si>
+    <t> Delete information stored in information systems and devices when it is no longer useful.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.11</t>
+  </si>
+  <si>
+    <t> Data masking</t>
+  </si>
+  <si>
+    <t> Limit the exposure of sensitive data, including personal data, and comply with legal, statutory, regulatory and contractual requirements.</t>
+  </si>
+  <si>
+    <t>#Preventive #Confidentiality #Protect #Information_Protection #Protection</t>
+  </si>
+  <si>
+    <t> - Data masking procedure - Data concerned - Evidence of application of masking</t>
+  </si>
+  <si>
+    <t> Check the existence and updating of the masking procedure, the relevance of the data concerned and the application of masking</t>
+  </si>
+  <si>
+    <t> Use data masking in accordance with organizational access control policy and business requirements, while taking into account legal requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.12</t>
+  </si>
+  <si>
+    <t> Data leak prevention</t>
+  </si>
+  <si>
+    <t> Detect and prevent unauthorized disclosure and extraction of information by people or systems.</t>
+  </si>
+  <si>
+    <t> #Preventive #Detective #Confidentiality #Protect #Detect #Information_Protection #Protection #Defense</t>
+  </si>
+  <si>
+    <t> - Data leak prevention procedure - Data concerned - Proof of application of measures</t>
+  </si>
+  <si>
+    <t> Check the existence and date of the procedure - Check the data concerned - Check the application of the measures</t>
+  </si>
+  <si>
+    <t> Apply data leak prevention measures to systems, networks and terminals that process, store or transmit sensitive information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.13</t>
+  </si>
+  <si>
+    <t> Backing up information</t>
+  </si>
+  <si>
+    <t> Enable recovery in the event of data or systems loss.</t>
+  </si>
+  <si>
+    <t> #Fix #Integrity #Availability #Restore #Continuity #Protection</t>
+  </si>
+  <si>
+    <t> - Backup policy - Backup copies - Backup copy tests</t>
+  </si>
+  <si>
+    <t> - Check the existence and updating of the backup policy - Existence of backup copies - Tests of backup copies</t>
+  </si>
+  <si>
+    <t> Maintain backup copies of information, software and systems and test them regularly using the defined backup policy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.14</t>
+  </si>
+  <si>
+    <t>Redundancy of information processing means</t>
+  </si>
+  <si>
+    <t> Ensure the continuous operation of information processing resources.</t>
+  </si>
+  <si>
+    <t> #Preventive #Availability #Protect #Continuity #Asset_management #Protection #Resilience</t>
+  </si>
+  <si>
+    <t> - Inventory of the information processing means concerned - requirement of availability - proof of redundancy</t>
+  </si>
+  <si>
+    <t> Check that the inventory is up to date, the availability requirements and the existence of evidence of redundancy</t>
+  </si>
+  <si>
+    <t> Implement information processing resources with sufficient redundancy to meet availability requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.15</t>
+  </si>
+  <si>
+    <t> Logging</t>
+  </si>
+  <si>
+    <t> Record events, generate evidence, ensure the integrity of logging information, prevent unauthorized access, identify information security events that may result in an information security incident, and assist in investigations.</t>
+  </si>
+  <si>
+    <t>#Detective #Privacy #Integrity #Availability #Detect #Information_security_event_handling #Protection #Defense</t>
+  </si>
+  <si>
+    <t> - log inventory - log protection measures - log storage - log analyzes</t>
+  </si>
+  <si>
+    <t> Check that the logs exist and are up to date, the log protection measures, the storage capacities and that the analysis carried out on these logs.</t>
+  </si>
+  <si>
+    <t> Create, protect, store and analyze logs recording activities, exceptions, outages and other relevant events.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.16</t>
+  </si>
+  <si>
+    <t> Monitoring activities</t>
+  </si>
+  <si>
+    <t> Detect abnormal behavior and possible information security incidents.</t>
+  </si>
+  <si>
+    <t> #Detective #Correction #Privacy #Integrity #Availability #Detect #Respond #Information_Security_Event Management #Defense</t>
+  </si>
+  <si>
+    <t> Inventory of networks, systems and applications concerned - Detection measures implemented - Evaluation / Incidents detected</t>
+  </si>
+  <si>
+    <t> Control the inventory of networks, systems and applications concerned, the detection measures put in place and that assessments are carried out or incidents generated</t>
+  </si>
+  <si>
+    <t> Monitor networks, systems and applications for abnormal behavior and take appropriate action to assess potential information security incidents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.17</t>
+  </si>
+  <si>
+    <t> Clock Synchronization</t>
+  </si>
+  <si>
+    <t> Enable the correlation and analysis of security events and other recorded data, assist in the investigation of information security incidents.</t>
+  </si>
+  <si>
+    <t> #Detective #Integrity #Protect #Detect #Information_Security_Event_Management #Protection #Defense</t>
+  </si>
+  <si>
+    <t> inventory of clocks concerned - single time source - synchronization mechanism - effectiveness of synchronization</t>
+  </si>
+  <si>
+    <t> Control clock inventory, unique time source used, and clock synchronization on the source</t>
+  </si>
+  <si>
+    <t> Synchronized to a single time reference source the clocks of all the relevant information processing systems of an organization or security domain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.18</t>
+  </si>
+  <si>
+    <t> Using Privileged Utility Programs</t>
+  </si>
+  <si>
+    <t> Ensure that the use of utility programs does not undermine the information security measures of systems and applications.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Integrity #Availability #Protect #System &amp; Network Security #Secure_Configuration #Application_Security #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of utility programs - controls implemented</t>
+  </si>
+  <si>
+    <t>Control the application of controls on the use of utility programs</t>
+  </si>
+  <si>
+    <t> Take inventory of utility programs used to circumvent the security measures of a system or application, limit and closely control their use.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.19</t>
+  </si>
+  <si>
+    <t> Installing software on operating systems</t>
+  </si>
+  <si>
+    <t> Ensure the integrity of operational systems and prevent the exploitation of technical vulnerabilities.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Integrity #Availability #Protect #Secure_configuration #Application_security #Protection</t>
+  </si>
+  <si>
+    <t> - installation control procedures - implementation of measures</t>
+  </si>
+  <si>
+    <t> Check the effectiveness of the installation control procedure</t>
+  </si>
+  <si>
+    <t> Implement procedures are implemented to control the installation of software in operational systems.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.20</t>
+  </si>
+  <si>
+    <t> Network measures</t>
+  </si>
+  <si>
+    <t>Protect information in networks and supporting information processing means against compromise via the network.</t>
+  </si>
+  <si>
+    <t> #Preventive #Detective #Privacy #Integrity #Availability #Protect #Detect #System_and_network_security #Protection</t>
+  </si>
+  <si>
+    <t> - networks concerned - controls implemented - verification of controls</t>
+  </si>
+  <si>
+    <t> Check that controls are in place and that these controls are effective</t>
+  </si>
+  <si>
+    <t> Manage and control networks to protect information contained in systems and applications.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.21</t>
+  </si>
+  <si>
+    <t> Network Services Security</t>
+  </si>
+  <si>
+    <t> Ensure security when using network services.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #System_and_network_security #Protection</t>
+  </si>
+  <si>
+    <t> - Inventory of affected network services - Security mechanisms, service levels and identified management requirement</t>
+  </si>
+  <si>
+    <t>Check that the inventory of relevant network services is complete and up to date, that service level security mechanisms and requirements are identified and are integrated into service agreements</t>
+  </si>
+  <si>
+    <t> For all network services, identify and integrate into network service agreements, security mechanisms, service levels and management requirements.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.22</t>
+  </si>
+  <si>
+    <t> Internet filtering</t>
+  </si>
+  <si>
+    <t> Divide the network into security perimeters and control traffic between them based on business needs.</t>
+  </si>
+  <si>
+    <t> - access measures put in place - blockages carried out</t>
+  </si>
+  <si>
+    <t> Control access rules to external websites and any blocks made.</t>
+  </si>
+  <si>
+    <t> Manage access to external websites to reduce exposure to malicious content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.23</t>
+  </si>
+  <si>
+    <t> Network partitioning</t>
+  </si>
+  <si>
+    <t>Protect systems from malware compromise and prevent access to unauthorized web resources.</t>
+  </si>
+  <si>
+    <t> - inventory of groups of information services, users and information systems - network partitioning measures</t>
+  </si>
+  <si>
+    <t> Control the inventory of groups of information services, users and information systems and the implementation of network partitioning measures</t>
+  </si>
+  <si>
+    <t> Partitioning groups of information services, users and information systems on the networks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.24</t>
+  </si>
+  <si>
+    <t> Use of cryptography</t>
+  </si>
+  <si>
+    <t> Ensure the correct and effective use of cryptography to protect the confidentiality, authenticity or integrity of information in accordance with business and information security requirements, and taking into account legal, statutory, regulatory and contractual requirements relating to cryptography.</t>
+  </si>
+  <si>
+    <t> Rules for the use of cryptography - Evidence of development and implementation of these rules - Cryptographic keys and algorithms used</t>
+  </si>
+  <si>
+    <t> Controls the rules for using cryptographic measures, their development and implementation as well as the cryptographic keys and algorithms used.</t>
+  </si>
+  <si>
+    <t> Define and implement rules relating to the use of cryptography, including the management of cryptographic keys.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.25</t>
+  </si>
+  <si>
+    <t> Secure development lifecycle</t>
+  </si>
+  <si>
+    <t> Ensure information security is designed and implemented during the secure software and systems development lifecycle.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Integrity #Availability #Protect #Application_Security #System_and_Network_Security #Protection</t>
+  </si>
+  <si>
+    <t> - development rules - developments carried out - proof of application of the rules</t>
+  </si>
+  <si>
+    <t>Control the existence of development rules, their updating and the application of development rules</t>
+  </si>
+  <si>
+    <t> Establish and apply software and systems development rules to the organization's developments.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.26</t>
+  </si>
+  <si>
+    <t> Application security requirements</t>
+  </si>
+  <si>
+    <t> Ensure all information security requirements are identified and addressed during application development or acquisition.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Integrity #Availability #Protect #Application_Security #System_and_Network_Security #Protection #Defense</t>
+  </si>
+  <si>
+    <t> - application services transmitted over public networks - protection measures</t>
+  </si>
+  <si>
+    <t> Control the inventory of network services and the effectiveness of measures against fraudulent activities, contractual mismatches, as well as unauthorized disclosure and modification.</t>
+  </si>
+  <si>
+    <t>Protect against fraudulent activity, contractual disputes, and unauthorized disclosure and modification of information related to application services transmitted over public networks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.27</t>
+  </si>
+  <si>
+    <t> Principles of secure system engineering and architecture</t>
+  </si>
+  <si>
+    <t> Ensure that information systems are designed, implemented and operated securely during the development life cycle.</t>
+  </si>
+  <si>
+    <t> - systems security engineering principles - information systems implementation work</t>
+  </si>
+  <si>
+    <t> Control that engineering principles are established and updated and that these principles are applied in the work of implementing information systems</t>
+  </si>
+  <si>
+    <t> Establish and document systems security engineering principles, maintain them and apply them to all information systems implementation work.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.28</t>
+  </si>
+  <si>
+    <t> Secure coding</t>
+  </si>
+  <si>
+    <t>Ensure that software is developed securely to reduce the number of possible information security vulnerabilities in software.</t>
+  </si>
+  <si>
+    <t> - inventory of developments carried out - proof of application of coding rules</t>
+  </si>
+  <si>
+    <t> Control the inventory of developments carried out and the application of coding rules</t>
+  </si>
+  <si>
+    <t> Apply secure coding principles to software development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.29</t>
+  </si>
+  <si>
+    <t> Security testing in development and acceptance</t>
+  </si>
+  <si>
+    <t> Validate compliance with information security requirements when applications or codes are deployed in the environment.</t>
+  </si>
+  <si>
+    <t> #Preventive #Privacy #Integrity #Availability #Identify #Application_Security #Information_Security_Assurance #System_and_Network_Security #Protection</t>
+  </si>
+  <si>
+    <t> conformity test programs - new systems, updates and new versions - tests carried out</t>
+  </si>
+  <si>
+    <t> Check that tests are carried out on new systems, when updating to new versions</t>
+  </si>
+  <si>
+    <t> Perform security functionality testing during development.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.30</t>
+  </si>
+  <si>
+    <t> Outsourced development</t>
+  </si>
+  <si>
+    <t> Ensure that information security measures required by the organization are implemented as part of outsourced systems development.</t>
+  </si>
+  <si>
+    <t> #Preventive #Detective #Privacy #Integrity #Availability #Identify #Protect #Detect #System_and_Network_Security #Application_Security #Supplier_Relationships_Security #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - outsourced developments - controls carried out</t>
+  </si>
+  <si>
+    <t> Check that controls are carried out on outsourced developments.</t>
+  </si>
+  <si>
+    <t>Green: compliant Orange: anomaly Red: non-compliant</t>
+  </si>
+  <si>
+    <t> Supervise and control the development activity of the outsourced system.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.31</t>
+  </si>
+  <si>
+    <t> Separation of development, test and production environments</t>
+  </si>
+  <si>
+    <t> Protect the operating environment and related data from compromises that may arise from development and testing activities.</t>
+  </si>
+  <si>
+    <t> - inventory of the applications concerned - development, test and operating environments - environment separation measures</t>
+  </si>
+  <si>
+    <t> Control the presence of environments for each application and the effectiveness of the separation of environments</t>
+  </si>
+  <si>
+    <t> Separate development, test, and operating environments to reduce the risk of unauthorized access or changes to the operating environment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.32</t>
+  </si>
+  <si>
+    <t> Change Management</t>
+  </si>
+  <si>
+    <t>Maintain information security when executing changes.</t>
+  </si>
+  <si>
+    <t> - change management procedure - changes made</t>
+  </si>
+  <si>
+    <t> Control the change management procedure, its updating and the changes made follow the procedure</t>
+  </si>
+  <si>
+    <t> Control system changes within the development cycle through formal procedures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.33</t>
+  </si>
+  <si>
+    <t> Test Information</t>
+  </si>
+  <si>
+    <t> Ensure the relevance of the tests and the protection of the operational information used for the tests.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Protect #Protection_of_information #Protection</t>
+  </si>
+  <si>
+    <t> - inventory of environments containing test data - protective measures applied (anonymization)</t>
+  </si>
+  <si>
+    <t> Control the application of protection measures to test data</t>
+  </si>
+  <si>
+    <t> Carefully select, protect and control test data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8.34</t>
+  </si>
+  <si>
+    <t>Protection of information systems during audit and testing</t>
+  </si>
+  <si>
+    <t> Minimize the impact of audit and other assurance activities on operational systems and business processes.</t>
+  </si>
+  <si>
+    <t> #Preventive #Confidentiality #Integrity #Availability #Protect #System_and_network_security #Information_protection #Governance_and_Ecosystem #Protection</t>
+  </si>
+  <si>
+    <t> - audit requirements and activities involving checks on operating systems - forecasting and validation of activities - disruptions caused by these checks</t>
+  </si>
+  <si>
+    <t> Control the requirements, forecasting and validation of activities and the existence of disruptions caused by these checks</t>
+  </si>
+  <si>
+    <t> Green: compliant Orange: anomaly Red: non-compliant</t>
+  </si>
+  <si>
+    <t>Carefully plan and validate audit requirements and activities involving checks on live systems to minimize disruption to business processes.</t>
+  </si>
+  <si>
+    <t> 8.x</t>
+  </si>
+  <si>
+    <t> Functioning</t>
+  </si>
+  <si>
+    <t> Monitor the operation of the ISMS, assess and deal with risks.</t>
+  </si>
+  <si>
+    <t> - ISMS process control - risk assessments - risk treatment plan</t>
+  </si>
+  <si>
+    <t> Check that the risk assessment and the risk treatment plan are up to date.</t>
+  </si>
+  <si>
+    <t> Plan, implement and control the processes necessary to meet information security requirements; Carry out information security risk assessments; and Implement the information security risk treatment plan.</t>
+  </si>
+  <si>
+    <t> Internal Audit</t>
+  </si>
+  <si>
+    <t>Collect information to determine whether the information security management system is compliant and effectively implemented and maintained.</t>
+  </si>
+  <si>
+    <t> - Internal audit plan - Internal audits carried out - Action plan</t>
+  </si>
+  <si>
+    <t> Check the existence and consistency of the internal audit plan, the internal audits carried out and the monitoring of action plans</t>
+  </si>
+  <si>
+    <t> Define an internal audit plan. Carry out internal audits Follow audit recommendations in an action plan</t>
+  </si>
+  <si>
+    <t> Management review</t>
+  </si>
+  <si>
+    <t> Ensure that the ISMS is always appropriate, suitable and effective.</t>
+  </si>
+  <si>
+    <t> - Documentation of the management review</t>
+  </si>
+  <si>
+    <t> Control the documentation of the management review, its content and the conclusions of the review.</t>
+  </si>
+  <si>
+    <t> Plan a management review in accordance with the expectations of the standard</t>
   </si>
 </sst>
 </file>

--- a/referentials/ISO27001-2022.en.xlsx
+++ b/referentials/ISO27001-2022.en.xlsx
@@ -20,11 +20,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="722">
   <si>
     <t xml:space="preserve">Domain</t>
   </si>
   <si>
+    <t xml:space="preserve">Domain – Description</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Clause</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t xml:space="preserve"> 27001:2022</t>
   </si>
   <si>
+    <t xml:space="preserve">ISMS</t>
+  </si>
+  <si>
     <t xml:space="preserve">10.1</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t xml:space="preserve"> 27001:2022-5</t>
   </si>
   <si>
+    <t xml:space="preserve">Organizational controls</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 5.01</t>
   </si>
   <si>
@@ -916,6 +925,9 @@
     <t xml:space="preserve"> 27001:2022-6</t>
   </si>
   <si>
+    <t xml:space="preserve">Personal controls</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 6.01</t>
   </si>
   <si>
@@ -1117,6 +1129,9 @@
     <t xml:space="preserve"> 27001:2022-7</t>
   </si>
   <si>
+    <t xml:space="preserve">Physical controls</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 7.01</t>
   </si>
   <si>
@@ -1433,6 +1448,9 @@
   </si>
   <si>
     <t xml:space="preserve"> 27001:2022-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical controls</t>
   </si>
   <si>
     <t xml:space="preserve"> 8.01</t>
@@ -2251,13 +2269,25 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2277,3003 +2307,3318 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A79" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B105" activeCellId="0" sqref="B105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="50"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="30"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="54.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="2" width="50"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="D3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="I3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="I4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="D5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="D6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="0" t="s">
+      <c r="F6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="G6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="H6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="I6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="J6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="D7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="G7" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="H7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="I7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="J7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E8" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="D8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="G8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="H8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="I8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="J8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="D9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="F9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="H9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="I9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="J9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="D10" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="E10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="F10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="G10" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="H10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="I10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="J10" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E11" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="D11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="E11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="I11" s="0" t="s">
+      <c r="F11" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="G11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="H11" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="I11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E12" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="D12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="0" t="s">
+      <c r="F12" s="2" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="G12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="H12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="I12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E13" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="D13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="E13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="0" t="s">
+      <c r="F13" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="G13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="H13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="I13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="D14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="E14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H14" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="0" t="s">
+      <c r="F14" s="2" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="G14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="H14" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="0" t="s">
+      <c r="I14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="D15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="0" t="s">
+      <c r="F15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="G15" s="2" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="0" t="s">
+      <c r="H15" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="I15" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="J15" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E16" s="0" t="s">
+    </row>
+    <row r="16" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="D16" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="E16" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I16" s="0" t="s">
+      <c r="F16" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="G16" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="H16" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="I16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E17" s="0" t="s">
+    </row>
+    <row r="17" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="D17" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="E17" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="H17" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="0" t="s">
+      <c r="F17" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="G17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="H17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="0" t="s">
+      <c r="I17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="0" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="D18" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="E18" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="H18" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I18" s="0" t="s">
+      <c r="F18" s="2" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="0" t="s">
+      <c r="G18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="H18" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="I18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E19" s="0" t="s">
+    </row>
+    <row r="19" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="D19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="E19" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="H19" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I19" s="0" t="s">
+      <c r="F19" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="0" t="s">
+      <c r="G19" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="H19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="0" t="s">
+      <c r="I19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="0" t="s">
+    </row>
+    <row r="20" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="D20" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I20" s="0" t="s">
+      <c r="E20" s="2" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="0" t="s">
+      <c r="F20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G20" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="H20" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="0" t="s">
+      <c r="I20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F21" s="0" t="s">
+    </row>
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="D21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="H21" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I21" s="0" t="s">
+      <c r="E21" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="0" t="s">
+      <c r="F21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="H21" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="0" t="s">
+      <c r="I21" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F22" s="0" t="s">
+    </row>
+    <row r="22" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="D22" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H22" s="0" t="s">
+      <c r="E22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="F22" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="H22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="I22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="J22" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="E23" s="0" t="s">
+    </row>
+    <row r="23" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="D23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="E23" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="H23" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I23" s="0" t="s">
+      <c r="F23" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="0" t="s">
+      <c r="G23" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="H23" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="I23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="G24" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="H24" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I24" s="0" t="s">
+      <c r="D24" s="2" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="E24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="H24" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="I24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J24" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G25" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="H25" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I25" s="0" t="s">
+      <c r="D25" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="E25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="H25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="I25" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="D26" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="E26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="H26" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I26" s="0" t="s">
+      <c r="F26" s="2" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="0" t="s">
+      <c r="G26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="H26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="0" t="s">
+      <c r="I26" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="D27" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="E27" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H27" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I27" s="0" t="s">
+      <c r="F27" s="2" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="G27" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="H27" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="I27" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J27" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="D28" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="E28" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="H28" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I28" s="0" t="s">
+      <c r="F28" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" s="0" t="s">
+      <c r="G28" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="H28" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D29" s="0" t="s">
+      <c r="I28" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J28" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E29" s="0" t="s">
+    </row>
+    <row r="29" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="D29" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="E29" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H29" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I29" s="0" t="s">
+      <c r="F29" s="2" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="0" t="s">
+      <c r="G29" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="H29" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="0" t="s">
+      <c r="I29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J29" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E30" s="0" t="s">
+    </row>
+    <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="D30" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="E30" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="H30" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" s="0" t="s">
+      <c r="F30" s="2" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="0" t="s">
+      <c r="G30" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="H30" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D31" s="0" t="s">
+      <c r="I30" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J30" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="0" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="D31" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="E31" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="H31" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I31" s="0" t="s">
+      <c r="F31" s="2" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="0" t="s">
+      <c r="G31" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="H31" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="D32" s="0" t="s">
+      <c r="I31" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="E32" s="0" t="s">
+    </row>
+    <row r="32" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="D32" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="E32" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I32" s="0" t="s">
+      <c r="F32" s="2" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="G32" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="H32" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="D33" s="0" t="s">
+      <c r="I32" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E33" s="0" t="s">
+    </row>
+    <row r="33" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="D33" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="E33" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="H33" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I33" s="0" t="s">
+      <c r="F33" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="G33" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="H33" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="D34" s="0" t="s">
+      <c r="I33" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J33" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E34" s="0" t="s">
+    </row>
+    <row r="34" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="F34" s="0" t="s">
+      <c r="D34" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="G34" s="0" t="s">
+      <c r="E34" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="H34" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I34" s="0" t="s">
+      <c r="F34" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="G34" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="H34" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D35" s="0" t="s">
+      <c r="I34" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="E35" s="0" t="s">
+    </row>
+    <row r="35" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="F35" s="0" t="s">
+      <c r="D35" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="E35" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="H35" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I35" s="0" t="s">
+      <c r="F35" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="0" t="s">
+      <c r="G35" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="H35" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D36" s="0" t="s">
+      <c r="I35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J35" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E36" s="0" t="s">
+    </row>
+    <row r="36" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="F36" s="0" t="s">
+      <c r="D36" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="E36" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H36" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I36" s="0" t="s">
+      <c r="F36" s="2" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="0" t="s">
+      <c r="G36" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="H36" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="D37" s="0" t="s">
+      <c r="I36" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J36" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E37" s="0" t="s">
+    </row>
+    <row r="37" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="F37" s="0" t="s">
+      <c r="D37" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="E37" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H37" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I37" s="0" t="s">
+      <c r="F37" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="0" t="s">
+      <c r="G37" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="H37" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="D38" s="0" t="s">
+      <c r="I37" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J37" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="E38" s="0" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="F38" s="0" t="s">
+      <c r="D38" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="G38" s="0" t="s">
+      <c r="E38" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="H38" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I38" s="0" t="s">
+      <c r="F38" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" s="0" t="s">
+      <c r="G38" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="H38" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D39" s="0" t="s">
+      <c r="I38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E39" s="0" t="s">
+    </row>
+    <row r="39" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="F39" s="0" t="s">
+      <c r="D39" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="E39" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H39" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I39" s="0" t="s">
+      <c r="F39" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="0" t="s">
+      <c r="G39" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="H39" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D40" s="0" t="s">
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E40" s="0" t="s">
+    </row>
+    <row r="40" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="F40" s="0" t="s">
+      <c r="D40" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="G40" s="0" t="s">
+      <c r="E40" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="H40" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I40" s="0" t="s">
+      <c r="F40" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B41" s="0" t="s">
+      <c r="G40" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="H40" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="D41" s="0" t="s">
+      <c r="I40" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J40" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="E41" s="0" t="s">
+    </row>
+    <row r="41" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="F41" s="0" t="s">
+      <c r="D41" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="E41" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H41" s="0" t="s">
+      <c r="F41" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="G41" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B42" s="0" t="s">
+      <c r="H41" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="I41" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="D42" s="0" t="s">
+      <c r="J41" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F42" s="0" t="s">
+    </row>
+    <row r="42" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="G42" s="0" t="s">
+      <c r="D42" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H42" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I42" s="0" t="s">
+      <c r="E42" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="G42" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="H42" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="I42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D43" s="0" t="s">
+    </row>
+    <row r="43" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="E43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="D43" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H43" s="0" t="s">
+      <c r="E43" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="F43" s="2" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B44" s="0" t="s">
+      <c r="G43" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="H43" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="D44" s="0" t="s">
+      <c r="I43" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E44" s="0" t="s">
+      <c r="J43" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="F44" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="H44" s="0" t="s">
+      <c r="D44" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="E44" s="2" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B45" s="0" t="s">
+      <c r="F44" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="H44" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D45" s="0" t="s">
+      <c r="I44" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E45" s="0" t="s">
+      <c r="J44" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="F45" s="0" t="s">
+    </row>
+    <row r="45" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="D45" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="H45" s="0" t="s">
+      <c r="E45" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="F45" s="2" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B46" s="0" t="s">
+      <c r="G45" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="H45" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D46" s="0" t="s">
+      <c r="I45" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E46" s="0" t="s">
+      <c r="J45" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="F46" s="0" t="s">
+    </row>
+    <row r="46" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="G46" s="0" t="s">
+      <c r="D46" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="H46" s="0" t="s">
+      <c r="E46" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="F46" s="2" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B47" s="0" t="s">
+      <c r="G46" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="H46" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="D47" s="0" t="s">
+      <c r="I46" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E47" s="0" t="s">
+      <c r="J46" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="F47" s="0" t="s">
+    </row>
+    <row r="47" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="D47" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="H47" s="0" t="s">
+      <c r="E47" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="F47" s="2" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B48" s="0" t="s">
+      <c r="G47" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="H47" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="D48" s="0" t="s">
+      <c r="I47" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E48" s="0" t="s">
+      <c r="J47" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F48" s="0" t="s">
+    </row>
+    <row r="48" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C48" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="D48" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="H48" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I48" s="0" t="s">
+      <c r="E48" s="2" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" s="0" t="s">
+      <c r="F48" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="G48" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="D49" s="0" t="s">
+      <c r="H48" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="E49" s="0" t="s">
+      <c r="I48" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F49" s="0" t="s">
+    </row>
+    <row r="49" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="D49" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="H49" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I49" s="0" t="s">
+      <c r="E49" s="2" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="B50" s="0" t="s">
+      <c r="F49" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="G49" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D50" s="0" t="s">
+      <c r="H49" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E50" s="0" t="s">
+      <c r="I49" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J49" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F50" s="0" t="s">
+    </row>
+    <row r="50" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="D50" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="H50" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I50" s="0" t="s">
+      <c r="E50" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="0" t="s">
+      <c r="F50" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="G50" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D51" s="0" t="s">
+      <c r="H50" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F51" s="0" t="s">
+      <c r="I50" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G51" s="0" t="s">
+    </row>
+    <row r="51" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="H51" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I51" s="0" t="s">
+      <c r="D51" s="2" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="E51" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="G51" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="H51" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="D52" s="0" t="s">
+      <c r="I51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E52" s="0" t="s">
+    </row>
+    <row r="52" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="H52" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I52" s="0" t="s">
+      <c r="D52" s="2" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B53" s="0" t="s">
+      <c r="E52" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="F52" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D53" s="0" t="s">
+      <c r="G52" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E53" s="0" t="s">
+      <c r="H52" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F53" s="0" t="s">
+      <c r="I52" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J52" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G53" s="0" t="s">
+    </row>
+    <row r="53" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="H53" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I53" s="0" t="s">
+      <c r="D53" s="2" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B54" s="0" t="s">
+      <c r="E53" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="F53" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="D54" s="0" t="s">
+      <c r="G53" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E54" s="0" t="s">
+      <c r="H53" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="F54" s="0" t="s">
+      <c r="I53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J53" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G54" s="0" t="s">
+    </row>
+    <row r="54" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="H54" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I54" s="0" t="s">
+      <c r="D54" s="2" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B55" s="0" t="s">
+      <c r="E54" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="F54" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="D55" s="0" t="s">
+      <c r="G54" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E55" s="0" t="s">
+      <c r="H54" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="F55" s="0" t="s">
+      <c r="I54" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J54" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="G55" s="0" t="s">
+    </row>
+    <row r="55" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="H55" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I55" s="0" t="s">
+      <c r="D55" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B56" s="0" t="s">
+      <c r="E55" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="F55" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="D56" s="0" t="s">
+      <c r="G55" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="E56" s="0" t="s">
+      <c r="H55" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F56" s="0" t="s">
-        <v>396</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>397</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I56" s="0" t="s">
+      <c r="B56" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C56" s="1" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B57" s="0" t="s">
+      <c r="D56" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="E56" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="D57" s="0" t="s">
+      <c r="F56" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G56" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="E57" s="0" t="s">
+      <c r="H56" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="F57" s="0" t="s">
-        <v>402</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>403</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I57" s="0" t="s">
+      <c r="B57" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C57" s="1" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B58" s="0" t="s">
+      <c r="D57" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="E57" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="D58" s="0" t="s">
+      <c r="F57" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="G57" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="E58" s="0" t="s">
+      <c r="H57" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="F58" s="0" t="s">
+      <c r="I57" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J57" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="G58" s="0" t="s">
+    </row>
+    <row r="58" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="H58" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I58" s="0" t="s">
+      <c r="D58" s="2" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B59" s="0" t="s">
+      <c r="E58" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="F58" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="D59" s="0" t="s">
+      <c r="G58" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="F59" s="0" t="s">
+      <c r="H58" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="I58" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J58" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="H59" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I59" s="0" t="s">
+    </row>
+    <row r="59" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B60" s="0" t="s">
+      <c r="D59" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="E59" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="D60" s="0" t="s">
+      <c r="F59" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="F60" s="0" t="s">
+      <c r="H59" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="I59" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J59" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="H60" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="I60" s="0" t="s">
+    </row>
+    <row r="60" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B61" s="0" t="s">
+      <c r="D60" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="E60" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="D61" s="0" t="s">
+      <c r="F60" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G60" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>382</v>
-      </c>
-      <c r="F61" s="0" t="s">
+      <c r="H60" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G61" s="0" t="s">
+      <c r="I60" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J60" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H61" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I61" s="0" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="108.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B62" s="0" t="s">
+      <c r="D61" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="E61" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="D62" s="0" t="s">
+      <c r="F61" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="E62" s="0" t="s">
+      <c r="H61" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="F62" s="0" t="s">
+      <c r="I61" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J61" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="G62" s="0" t="s">
+    </row>
+    <row r="62" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="H62" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I62" s="0" t="s">
+      <c r="D62" s="2" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B63" s="0" t="s">
+      <c r="E62" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="F62" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D63" s="0" t="s">
+      <c r="G62" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E63" s="0" t="s">
+      <c r="H62" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="F63" s="0" t="s">
+      <c r="I62" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J62" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="G63" s="0" t="s">
+    </row>
+    <row r="63" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="H63" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I63" s="0" t="s">
+      <c r="D63" s="2" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B64" s="0" t="s">
+      <c r="E63" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="F63" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="D64" s="0" t="s">
+      <c r="G63" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="E64" s="0" t="s">
+      <c r="H63" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="F64" s="0" t="s">
+      <c r="I63" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J63" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="G64" s="0" t="s">
+    </row>
+    <row r="64" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="H64" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I64" s="0" t="s">
+      <c r="D64" s="2" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>364</v>
-      </c>
-      <c r="B65" s="0" t="s">
+      <c r="E64" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="F64" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="D65" s="0" t="s">
+      <c r="G64" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="E65" s="0" t="s">
+      <c r="H64" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="F65" s="0" t="s">
+      <c r="I64" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="G65" s="0" t="s">
+    </row>
+    <row r="65" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="H65" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I65" s="0" t="s">
+      <c r="D65" s="2" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B66" s="0" t="s">
+      <c r="E65" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="F65" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="D66" s="0" t="s">
+      <c r="G65" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="F66" s="0" t="s">
+      <c r="H65" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="G66" s="0" t="s">
+      <c r="I65" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="H66" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I66" s="0" t="s">
+    </row>
+    <row r="66" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B67" s="0" t="s">
+      <c r="D66" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="E66" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="D67" s="0" t="s">
+      <c r="G66" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="F67" s="0" t="s">
+      <c r="H66" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="I66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="H67" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I67" s="0" t="s">
+    </row>
+    <row r="67" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="D67" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="B68" s="0" t="s">
+      <c r="E67" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="G67" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="D68" s="0" t="s">
+      <c r="H67" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" s="0" t="s">
+      <c r="I67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="G68" s="0" t="s">
+    </row>
+    <row r="68" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="H68" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="I68" s="0" t="s">
+      <c r="B68" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B69" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="D68" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="D69" s="0" t="s">
+      <c r="E68" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F69" s="0" t="s">
+      <c r="F68" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G68" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="H68" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="H69" s="0" t="s">
+      <c r="I68" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="J68" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="I69" s="0" t="s">
+    </row>
+    <row r="69" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B70" s="0" t="s">
+      <c r="D69" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="E69" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D70" s="0" t="s">
+      <c r="F69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G69" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E70" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F70" s="0" t="s">
+      <c r="H69" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="I69" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H70" s="0" t="s">
+      <c r="J69" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="I70" s="0" t="s">
+    </row>
+    <row r="70" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C70" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B71" s="0" t="s">
+      <c r="D70" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="E70" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D71" s="0" t="s">
+      <c r="F70" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G70" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E71" s="0" t="s">
+      <c r="H70" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="F71" s="0" t="s">
+      <c r="I70" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="J70" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="H71" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I71" s="0" t="s">
+    </row>
+    <row r="71" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C71" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B72" s="0" t="s">
+      <c r="D71" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="E71" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D72" s="0" t="s">
+      <c r="F71" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="F72" s="0" t="s">
+      <c r="G71" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="H71" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="H72" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I72" s="0" t="s">
+      <c r="I71" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J71" s="2" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B73" s="0" t="s">
+    <row r="72" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="D72" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D73" s="0" t="s">
+      <c r="E72" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="E73" s="0" t="s">
+      <c r="F72" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G72" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="F73" s="0" t="s">
+      <c r="H72" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="I72" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="H73" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I73" s="0" t="s">
+    </row>
+    <row r="73" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B74" s="0" t="s">
+      <c r="D73" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="E73" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="D74" s="0" t="s">
+      <c r="F73" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="E74" s="0" t="s">
+      <c r="G73" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="F74" s="0" t="s">
-        <v>287</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>288</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I74" s="0" t="s">
+      <c r="H73" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J73" s="2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="G74" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>515</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>516</v>
-      </c>
-      <c r="D75" s="0" t="s">
-        <v>517</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>518</v>
-      </c>
-      <c r="F75" s="0" t="s">
-        <v>519</v>
-      </c>
-      <c r="G75" s="0" t="s">
-        <v>520</v>
-      </c>
-      <c r="H75" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I75" s="0" t="s">
+      <c r="H74" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J74" s="2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B76" s="0" t="s">
+      <c r="D75" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="E75" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="D76" s="0" t="s">
+      <c r="F75" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="E76" s="0" t="s">
+      <c r="G75" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="F76" s="0" t="s">
+      <c r="H75" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="I75" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J75" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="H76" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I76" s="0" t="s">
+    </row>
+    <row r="76" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B77" s="0" t="s">
+      <c r="D76" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="E76" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="D77" s="0" t="s">
+      <c r="F76" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="E77" s="0" t="s">
+      <c r="G76" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F77" s="0" t="s">
+      <c r="H76" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G77" s="0" t="s">
+      <c r="I76" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J76" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H77" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I77" s="0" t="s">
+    </row>
+    <row r="77" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B78" s="0" t="s">
+      <c r="D77" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="E77" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="D78" s="0" t="s">
+      <c r="F77" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="E78" s="0" t="s">
+      <c r="G77" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F78" s="0" t="s">
+      <c r="H77" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="I77" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J77" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H78" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I78" s="0" t="s">
+    </row>
+    <row r="78" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B79" s="0" t="s">
+      <c r="D78" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="E78" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="D79" s="0" t="s">
+      <c r="F78" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="E79" s="0" t="s">
+      <c r="G78" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="F79" s="0" t="s">
+      <c r="H78" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="G79" s="0" t="s">
+      <c r="I78" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="H79" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I79" s="0" t="s">
+    </row>
+    <row r="79" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B80" s="0" t="s">
+      <c r="D79" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="E79" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="D80" s="0" t="s">
+      <c r="F79" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="E80" s="0" t="s">
+      <c r="G79" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="F80" s="0" t="s">
+      <c r="H79" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="I79" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J79" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="H80" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I80" s="0" t="s">
+    </row>
+    <row r="80" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B81" s="0" t="s">
+      <c r="D80" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="E80" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="D81" s="0" t="s">
+      <c r="F80" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="E81" s="0" t="s">
+      <c r="G80" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="F81" s="0" t="s">
+      <c r="H80" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="I80" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J80" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H81" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I81" s="0" t="s">
+    </row>
+    <row r="81" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B82" s="0" t="s">
+      <c r="D81" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="E81" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="D82" s="0" t="s">
+      <c r="F81" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="E82" s="0" t="s">
+      <c r="G81" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="F82" s="0" t="s">
+      <c r="H81" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="I81" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J81" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="H82" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I82" s="0" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B83" s="0" t="s">
+      <c r="D82" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="E82" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="D83" s="0" t="s">
+      <c r="F82" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="E83" s="0" t="s">
+      <c r="G82" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="F83" s="0" t="s">
+      <c r="H82" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="I82" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J82" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="H83" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I83" s="0" t="s">
+    </row>
+    <row r="83" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B84" s="0" t="s">
+      <c r="D83" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="E83" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="D84" s="0" t="s">
+      <c r="F83" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="E84" s="0" t="s">
+      <c r="G83" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="F84" s="0" t="s">
+      <c r="H83" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="I83" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="H84" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I84" s="0" t="s">
+    </row>
+    <row r="84" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B85" s="0" t="s">
+      <c r="D84" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="E84" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="D85" s="0" t="s">
+      <c r="F84" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="E85" s="0" t="s">
+      <c r="G84" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="F85" s="0" t="s">
+      <c r="H84" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="G85" s="0" t="s">
+      <c r="I84" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J84" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="H85" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I85" s="0" t="s">
+    </row>
+    <row r="85" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C85" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B86" s="0" t="s">
+      <c r="D85" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="E85" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D86" s="0" t="s">
+      <c r="F85" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E86" s="0" t="s">
+      <c r="G85" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="F86" s="0" t="s">
+      <c r="H85" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="G86" s="0" t="s">
+      <c r="I85" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J85" s="2" t="s">
         <v>597</v>
       </c>
-      <c r="H86" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I86" s="0" t="s">
+    </row>
+    <row r="86" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B87" s="0" t="s">
+      <c r="D86" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="E86" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="D87" s="0" t="s">
+      <c r="F86" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="E87" s="0" t="s">
+      <c r="G86" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="F87" s="0" t="s">
+      <c r="H86" s="2" t="s">
         <v>603</v>
       </c>
-      <c r="G87" s="0" t="s">
+      <c r="I86" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J86" s="2" t="s">
         <v>604</v>
       </c>
-      <c r="H87" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I87" s="0" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B88" s="0" t="s">
+      <c r="D87" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="E87" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="D88" s="0" t="s">
+      <c r="F87" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="E88" s="0" t="s">
+      <c r="G87" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="F88" s="0" t="s">
+      <c r="H87" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="G88" s="0" t="s">
+      <c r="I87" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J87" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="H88" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I88" s="0" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B89" s="0" t="s">
+      <c r="D88" s="2" t="s">
         <v>613</v>
       </c>
-      <c r="C89" s="0" t="s">
+      <c r="E88" s="2" t="s">
         <v>614</v>
       </c>
-      <c r="D89" s="0" t="s">
+      <c r="F88" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="F89" s="0" t="s">
+      <c r="G88" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="G89" s="0" t="s">
+      <c r="H88" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="H89" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I89" s="0" t="s">
+      <c r="I88" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B90" s="0" t="s">
+    <row r="89" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="D89" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D90" s="0" t="s">
+      <c r="E89" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="E90" s="0" t="s">
-        <v>609</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="F89" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="G90" s="0" t="s">
+      <c r="H89" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="H90" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I90" s="0" t="s">
+      <c r="I89" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>624</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B91" s="0" t="s">
+    <row r="90" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C90" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C91" s="0" t="s">
+      <c r="D90" s="2" t="s">
         <v>626</v>
       </c>
-      <c r="D91" s="0" t="s">
+      <c r="E90" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="E91" s="0" t="s">
-        <v>525</v>
-      </c>
-      <c r="F91" s="0" t="s">
+      <c r="F90" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="G90" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G91" s="0" t="s">
+      <c r="H90" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H91" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I91" s="0" t="s">
+      <c r="I90" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J90" s="2" t="s">
         <v>630</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B92" s="0" t="s">
+    <row r="91" customFormat="false" ht="82.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C91" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="D91" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="D92" s="0" t="s">
+      <c r="E91" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="E92" s="0" t="s">
+      <c r="F91" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="F92" s="0" t="s">
+      <c r="H91" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="G92" s="0" t="s">
+      <c r="I91" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J91" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="H92" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I92" s="0" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C92" s="1" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B93" s="0" t="s">
+      <c r="D92" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="E92" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="D93" s="0" t="s">
+      <c r="F92" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="E93" s="0" t="s">
+      <c r="G92" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="F93" s="0" t="s">
+      <c r="H92" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G93" s="0" t="s">
+      <c r="I92" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J92" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H93" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I93" s="0" t="s">
+    </row>
+    <row r="93" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C93" s="1" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B94" s="0" t="s">
+      <c r="D93" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="E93" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="D94" s="0" t="s">
+      <c r="F93" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="F94" s="0" t="s">
+      <c r="G93" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="G94" s="0" t="s">
+      <c r="H93" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="H94" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I94" s="0" t="s">
+      <c r="I93" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J93" s="2" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B95" s="0" t="s">
+    <row r="94" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C94" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="D94" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="D95" s="0" t="s">
+      <c r="E94" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="F95" s="0" t="s">
+      <c r="F94" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G94" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="G95" s="0" t="s">
+      <c r="H94" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="H95" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I95" s="0" t="s">
+      <c r="I94" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J94" s="2" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B96" s="0" t="s">
+    <row r="95" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C95" s="1" t="s">
         <v>657</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="D95" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="D96" s="0" t="s">
+      <c r="E95" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="E96" s="0" t="s">
+      <c r="F95" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G95" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F96" s="0" t="s">
+      <c r="H95" s="2" t="s">
         <v>661</v>
       </c>
-      <c r="G96" s="0" t="s">
+      <c r="I95" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J95" s="2" t="s">
         <v>662</v>
       </c>
-      <c r="H96" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="I96" s="0" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C96" s="1" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B97" s="0" t="s">
+      <c r="D96" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="E96" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="D97" s="0" t="s">
+      <c r="F96" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="E97" s="0" t="s">
+      <c r="G96" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="F97" s="0" t="s">
+      <c r="H96" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="G97" s="0" t="s">
+      <c r="I96" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J96" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="H97" s="0" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C97" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="I97" s="0" t="s">
+      <c r="D97" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B98" s="0" t="s">
+      <c r="E97" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="F97" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="D98" s="0" t="s">
+      <c r="G97" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="F98" s="0" t="s">
+      <c r="H97" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="G98" s="0" t="s">
+      <c r="I97" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="H98" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I98" s="0" t="s">
+      <c r="J97" s="2" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B99" s="0" t="s">
+    <row r="98" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="D98" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="D99" s="0" t="s">
+      <c r="E98" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="F99" s="0" t="s">
+      <c r="F98" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="G99" s="0" t="s">
+      <c r="H98" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="H99" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I99" s="0" t="s">
+      <c r="I98" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J98" s="2" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B100" s="0" t="s">
+    <row r="99" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C99" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="D99" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="D100" s="0" t="s">
+      <c r="E99" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="E100" s="0" t="s">
+      <c r="F99" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="F100" s="0" t="s">
+      <c r="H99" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="G100" s="0" t="s">
+      <c r="I99" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J99" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="H100" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I100" s="0" t="s">
+    </row>
+    <row r="100" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C100" s="1" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>470</v>
-      </c>
-      <c r="B101" s="0" t="s">
+      <c r="D100" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="E100" s="2" t="s">
         <v>692</v>
       </c>
-      <c r="D101" s="0" t="s">
+      <c r="F100" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="E101" s="0" t="s">
+      <c r="G100" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="F101" s="0" t="s">
+      <c r="H100" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="G101" s="0" t="s">
+      <c r="I100" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J100" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="H101" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I101" s="0" t="s">
+    </row>
+    <row r="101" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C101" s="1" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B102" s="0" t="s">
+      <c r="D101" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="E101" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D102" s="0" t="s">
+      <c r="F101" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="F102" s="0" t="s">
+      <c r="G101" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G102" s="0" t="s">
+      <c r="H101" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H102" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I102" s="0" t="s">
+      <c r="I101" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B103" s="0" t="s">
+    <row r="102" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="D102" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="D103" s="0" t="s">
+      <c r="E102" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="F103" s="0" t="s">
+      <c r="G102" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="G103" s="0" t="s">
+      <c r="H102" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="H103" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I103" s="0" t="s">
+      <c r="I102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J102" s="2" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B104" s="0" t="s">
+    <row r="103" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="D103" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="D104" s="0" t="s">
+      <c r="E103" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="F104" s="0" t="s">
+      <c r="G103" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="G104" s="0" t="s">
+      <c r="H103" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="H104" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="I104" s="0" t="s">
+      <c r="I103" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>715</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
